--- a/Compétences/Resources/Type_dnb_oral.xlsx
+++ b/Compétences/Resources/Type_dnb_oral.xlsx
@@ -103,10 +103,6 @@
     <t>Nom et prénom</t>
   </si>
   <si>
-    <t>Physique
-Chimie</t>
-  </si>
-  <si>
     <t>Maths2</t>
   </si>
   <si>
@@ -182,11 +178,6 @@
 (épreuve /25)</t>
   </si>
   <si>
-    <t>Physique
-Chimie
-(épreuve /25)</t>
-  </si>
-  <si>
     <t>Oral</t>
   </si>
   <si>
@@ -197,6 +188,13 @@
     <t>Histoire
 Géo EMC
 (épreuve /50)</t>
+  </si>
+  <si>
+    <t>Technologie
+(épreuve /25)</t>
+  </si>
+  <si>
+    <t>Technologie</t>
   </si>
 </sst>
 </file>
@@ -221,13 +219,13 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
       <color indexed="0"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -961,10 +959,10 @@
   <dimension ref="A1:AQ50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="X2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AF2" sqref="AF2"/>
+      <selection pane="bottomRight" activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1040,19 +1038,19 @@
         <v>14</v>
       </c>
       <c r="N1" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O1" s="19" t="s">
         <v>10</v>
       </c>
       <c r="P1" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q1" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="R1" s="20" t="s">
         <v>26</v>
-      </c>
-      <c r="Q1" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="R1" s="20" t="s">
-        <v>27</v>
       </c>
       <c r="S1" s="21" t="s">
         <v>15</v>
@@ -1061,31 +1059,31 @@
         <v>16</v>
       </c>
       <c r="U1" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="V1" s="20" t="s">
         <v>17</v>
       </c>
       <c r="W1" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="X1" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="X1" s="20" t="s">
+      <c r="Y1" s="20" t="s">
         <v>30</v>
-      </c>
-      <c r="Y1" s="20" t="s">
-        <v>31</v>
       </c>
       <c r="Z1" s="20" t="s">
         <v>11</v>
       </c>
       <c r="AA1" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AB1" s="21" t="s">
         <v>18</v>
       </c>
       <c r="AC1" s="20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AD1" s="22" t="s">
         <v>19</v>
@@ -1103,31 +1101,31 @@
         <v>13</v>
       </c>
       <c r="AI1" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ1" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="30" t="s">
+      <c r="AK1" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" s="30" t="s">
+      <c r="AL1" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" s="30" t="s">
+      <c r="AM1" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="AM1" s="30" t="s">
+      <c r="AN1" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="AN1" s="30" t="s">
+      <c r="AO1" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="AO1" s="30" t="s">
+      <c r="AP1" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="AP1" s="30" t="s">
+      <c r="AQ1" s="31" t="s">
         <v>40</v>
-      </c>
-      <c r="AQ1" s="31" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:43" x14ac:dyDescent="0.25">
@@ -7861,7 +7859,7 @@
   <dimension ref="A1:I62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7881,28 +7879,28 @@
         <v>23</v>
       </c>
       <c r="B1" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="G1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">

--- a/Compétences/Resources/Type_dnb_oral.xlsx
+++ b/Compétences/Resources/Type_dnb_oral.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Visual Studio 2015\Projects\Compétences ELyco\Compétences\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manceau\Desktop\Fourre-tout\ELyco_Competences\2017-2018\DNB\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -565,9 +565,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -646,6 +643,9 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="NiveauLigne_4" xfId="1" builtinId="1" iLevel="3"/>
@@ -655,8 +655,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFCC00"/>
       <color rgb="FFFF9900"/>
-      <color rgb="FFFFCC00"/>
       <color rgb="FFFFFF00"/>
     </mruColors>
   </colors>
@@ -961,15 +961,15 @@
   <dimension ref="A1:AQ50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="X2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AF2" sqref="AF2"/>
+      <selection pane="bottomRight" activeCell="AD2" sqref="AD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21" style="27" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21" style="26" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" style="1" customWidth="1"/>
     <col min="4" max="9" width="12.28515625" style="2" customWidth="1"/>
@@ -990,17 +990,17 @@
     <col min="24" max="24" width="12.28515625" style="1" customWidth="1"/>
     <col min="25" max="25" width="6.140625" style="1" hidden="1" customWidth="1"/>
     <col min="26" max="26" width="12.28515625" style="5" customWidth="1"/>
-    <col min="27" max="27" width="6.140625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="6.140625" style="1" hidden="1" customWidth="1"/>
     <col min="28" max="28" width="12.28515625" style="6" customWidth="1"/>
-    <col min="29" max="29" width="12.28515625" style="39" customWidth="1"/>
+    <col min="29" max="29" width="12.28515625" style="38" customWidth="1"/>
     <col min="30" max="30" width="12.28515625" style="1" customWidth="1"/>
-    <col min="31" max="31" width="12.28515625" style="36" customWidth="1"/>
+    <col min="31" max="31" width="12.28515625" style="35" customWidth="1"/>
     <col min="32" max="33" width="12.28515625" style="1" customWidth="1"/>
     <col min="34" max="34" width="24.42578125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" s="1" customFormat="1" ht="65.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
         <v>23</v>
       </c>
       <c r="B1" s="13" t="s">
@@ -1036,102 +1036,102 @@
       <c r="L1" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="M1" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="N1" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="O1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="19" t="s">
+      <c r="P1" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="Q1" s="20" t="s">
+      <c r="Q1" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="R1" s="20" t="s">
+      <c r="R1" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="S1" s="21" t="s">
+      <c r="S1" s="20" t="s">
         <v>15</v>
       </c>
       <c r="T1" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="U1" s="20" t="s">
+      <c r="U1" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="V1" s="20" t="s">
+      <c r="V1" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="W1" s="20" t="s">
+      <c r="W1" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="X1" s="20" t="s">
+      <c r="X1" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="Y1" s="20" t="s">
+      <c r="Y1" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="Z1" s="20" t="s">
+      <c r="Z1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="AA1" s="19" t="s">
+      <c r="AA1" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="AB1" s="21" t="s">
+      <c r="AB1" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="AC1" s="20" t="s">
+      <c r="AC1" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="AD1" s="22" t="s">
+      <c r="AD1" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="AE1" s="34" t="s">
+      <c r="AE1" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="AF1" s="23" t="s">
+      <c r="AF1" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="AG1" s="24" t="s">
+      <c r="AG1" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="AH1" s="25" t="s">
+      <c r="AH1" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="AI1" s="30" t="s">
+      <c r="AI1" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="30" t="s">
+      <c r="AJ1" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" s="30" t="s">
+      <c r="AK1" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" s="30" t="s">
+      <c r="AL1" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="AM1" s="30" t="s">
+      <c r="AM1" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="AN1" s="30" t="s">
+      <c r="AN1" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="AO1" s="30" t="s">
+      <c r="AO1" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="AP1" s="30" t="s">
+      <c r="AP1" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="AQ1" s="31" t="s">
+      <c r="AQ1" s="30" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A2" s="28"/>
+      <c r="A2" s="27"/>
       <c r="B2" s="9"/>
       <c r="C2" s="10" t="str">
         <f t="shared" ref="C2:C33" si="0">MID(AI2,2,2)</f>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S2" s="12">
-        <f>M2+O2+Q2</f>
+        <f>O2+Q2</f>
         <v>0</v>
       </c>
       <c r="T2" s="11">
@@ -1234,7 +1234,7 @@
         <v>0</v>
       </c>
       <c r="AB2" s="12">
-        <f>T2+V2+X2+Z2</f>
+        <f>V2+X2+Z2</f>
         <v>0</v>
       </c>
       <c r="AC2" s="12">
@@ -1242,11 +1242,11 @@
         <v>0</v>
       </c>
       <c r="AD2" s="12">
-        <f>S2+AB2+AC2</f>
-        <v>0</v>
-      </c>
-      <c r="AE2" s="35">
-        <f>AD2/15</f>
+        <f>S2+AB2+AC2+T2+M2</f>
+        <v>0</v>
+      </c>
+      <c r="AE2" s="34">
+        <f>AD2/20</f>
         <v>0</v>
       </c>
       <c r="AF2" s="10" t="e">
@@ -1261,18 +1261,18 @@
         <f>IF(AG2&gt;=16,"Admis mention TB",IF(AG2&gt;=14,"Admis mention B",IF(AG2&gt;=12,"Admis mention AB",IF(AG2&gt;=10,"Admis sans mention","Non admis pour "&amp;400-AF2&amp;" points"))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AI2" s="29"/>
-      <c r="AJ2" s="29"/>
-      <c r="AK2" s="29"/>
-      <c r="AL2" s="29"/>
-      <c r="AM2" s="29"/>
-      <c r="AN2" s="29"/>
-      <c r="AO2" s="29"/>
-      <c r="AP2" s="29"/>
-      <c r="AQ2" s="32"/>
+      <c r="AI2" s="28"/>
+      <c r="AJ2" s="28"/>
+      <c r="AK2" s="28"/>
+      <c r="AL2" s="28"/>
+      <c r="AM2" s="28"/>
+      <c r="AN2" s="28"/>
+      <c r="AO2" s="28"/>
+      <c r="AP2" s="28"/>
+      <c r="AQ2" s="31"/>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A3" s="28"/>
+      <c r="A3" s="27"/>
       <c r="B3" s="9"/>
       <c r="C3" s="10" t="str">
         <f t="shared" si="0"/>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="S3" s="12">
-        <f t="shared" ref="S3:S29" si="13">M3+O3+Q3</f>
+        <f t="shared" ref="S3:S50" si="13">O3+Q3</f>
         <v>0</v>
       </c>
       <c r="T3" s="11">
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="AB3" s="12">
-        <f t="shared" ref="AB3:AB29" si="18">T3+V3+X3+Z3</f>
+        <f t="shared" ref="AB3:AB50" si="18">V3+X3+Z3</f>
         <v>0</v>
       </c>
       <c r="AC3" s="12">
@@ -1383,11 +1383,11 @@
         <v>0</v>
       </c>
       <c r="AD3" s="12">
-        <f t="shared" ref="AD3:AD50" si="19">S3+AB3+AC3</f>
-        <v>0</v>
-      </c>
-      <c r="AE3" s="35">
-        <f t="shared" ref="AE3:AE29" si="20">AD3/15</f>
+        <f t="shared" ref="AD3:AD50" si="19">S3+AB3+AC3+T3+M3</f>
+        <v>0</v>
+      </c>
+      <c r="AE3" s="34">
+        <f t="shared" ref="AE3:AE50" si="20">AD3/20</f>
         <v>0</v>
       </c>
       <c r="AF3" s="7" t="e">
@@ -1402,18 +1402,18 @@
         <f t="shared" ref="AH3:AH50" si="23">IF(AG3&gt;=16,"Admis mention TB",IF(AG3&gt;=14,"Admis mention B",IF(AG3&gt;=12,"Admis mention AB",IF(AG3&gt;=10,"Admis sans mention","Non admis pour "&amp;400-AF3&amp;" points"))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AI3" s="29"/>
-      <c r="AJ3" s="29"/>
-      <c r="AK3" s="29"/>
-      <c r="AL3" s="29"/>
-      <c r="AM3" s="29"/>
-      <c r="AN3" s="29"/>
-      <c r="AO3" s="29"/>
-      <c r="AP3" s="29"/>
-      <c r="AQ3" s="32"/>
+      <c r="AI3" s="28"/>
+      <c r="AJ3" s="28"/>
+      <c r="AK3" s="28"/>
+      <c r="AL3" s="28"/>
+      <c r="AM3" s="28"/>
+      <c r="AN3" s="28"/>
+      <c r="AO3" s="28"/>
+      <c r="AP3" s="28"/>
+      <c r="AQ3" s="31"/>
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A4" s="28"/>
+      <c r="A4" s="27"/>
       <c r="B4" s="9"/>
       <c r="C4" s="10" t="str">
         <f t="shared" si="0"/>
@@ -1527,7 +1527,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AE4" s="35">
+      <c r="AE4" s="34">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
@@ -1543,18 +1543,18 @@
         <f t="shared" si="23"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AI4" s="29"/>
-      <c r="AJ4" s="29"/>
-      <c r="AK4" s="29"/>
-      <c r="AL4" s="29"/>
-      <c r="AM4" s="29"/>
-      <c r="AN4" s="29"/>
-      <c r="AO4" s="29"/>
-      <c r="AP4" s="29"/>
-      <c r="AQ4" s="32"/>
+      <c r="AI4" s="28"/>
+      <c r="AJ4" s="28"/>
+      <c r="AK4" s="28"/>
+      <c r="AL4" s="28"/>
+      <c r="AM4" s="28"/>
+      <c r="AN4" s="28"/>
+      <c r="AO4" s="28"/>
+      <c r="AP4" s="28"/>
+      <c r="AQ4" s="31"/>
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A5" s="28"/>
+      <c r="A5" s="27"/>
       <c r="B5" s="9"/>
       <c r="C5" s="10" t="str">
         <f t="shared" si="0"/>
@@ -1668,7 +1668,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AE5" s="35">
+      <c r="AE5" s="34">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
@@ -1684,18 +1684,18 @@
         <f t="shared" si="23"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AI5" s="29"/>
-      <c r="AJ5" s="29"/>
-      <c r="AK5" s="29"/>
-      <c r="AL5" s="29"/>
-      <c r="AM5" s="29"/>
-      <c r="AN5" s="29"/>
-      <c r="AO5" s="29"/>
-      <c r="AP5" s="29"/>
-      <c r="AQ5" s="33"/>
+      <c r="AI5" s="28"/>
+      <c r="AJ5" s="28"/>
+      <c r="AK5" s="28"/>
+      <c r="AL5" s="28"/>
+      <c r="AM5" s="28"/>
+      <c r="AN5" s="28"/>
+      <c r="AO5" s="28"/>
+      <c r="AP5" s="28"/>
+      <c r="AQ5" s="32"/>
     </row>
     <row r="6" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A6" s="28"/>
+      <c r="A6" s="27"/>
       <c r="B6" s="9"/>
       <c r="C6" s="10" t="str">
         <f t="shared" si="0"/>
@@ -1809,7 +1809,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AE6" s="35">
+      <c r="AE6" s="34">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
@@ -1825,18 +1825,18 @@
         <f t="shared" si="23"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AI6" s="29"/>
-      <c r="AJ6" s="29"/>
-      <c r="AK6" s="29"/>
-      <c r="AL6" s="29"/>
-      <c r="AM6" s="29"/>
-      <c r="AN6" s="29"/>
-      <c r="AO6" s="29"/>
-      <c r="AP6" s="29"/>
-      <c r="AQ6" s="32"/>
+      <c r="AI6" s="28"/>
+      <c r="AJ6" s="28"/>
+      <c r="AK6" s="28"/>
+      <c r="AL6" s="28"/>
+      <c r="AM6" s="28"/>
+      <c r="AN6" s="28"/>
+      <c r="AO6" s="28"/>
+      <c r="AP6" s="28"/>
+      <c r="AQ6" s="31"/>
     </row>
     <row r="7" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A7" s="28"/>
+      <c r="A7" s="27"/>
       <c r="B7" s="9"/>
       <c r="C7" s="10" t="str">
         <f t="shared" si="0"/>
@@ -1950,7 +1950,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AE7" s="35">
+      <c r="AE7" s="34">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
@@ -1966,18 +1966,18 @@
         <f t="shared" si="23"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AI7" s="29"/>
-      <c r="AJ7" s="29"/>
-      <c r="AK7" s="29"/>
-      <c r="AL7" s="29"/>
-      <c r="AM7" s="29"/>
-      <c r="AN7" s="29"/>
-      <c r="AO7" s="29"/>
-      <c r="AP7" s="29"/>
-      <c r="AQ7" s="32"/>
+      <c r="AI7" s="28"/>
+      <c r="AJ7" s="28"/>
+      <c r="AK7" s="28"/>
+      <c r="AL7" s="28"/>
+      <c r="AM7" s="28"/>
+      <c r="AN7" s="28"/>
+      <c r="AO7" s="28"/>
+      <c r="AP7" s="28"/>
+      <c r="AQ7" s="31"/>
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A8" s="28"/>
+      <c r="A8" s="27"/>
       <c r="B8" s="9"/>
       <c r="C8" s="10" t="str">
         <f t="shared" si="0"/>
@@ -2091,7 +2091,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AE8" s="35">
+      <c r="AE8" s="34">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
@@ -2107,18 +2107,18 @@
         <f t="shared" si="23"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AI8" s="29"/>
-      <c r="AJ8" s="29"/>
-      <c r="AK8" s="29"/>
-      <c r="AL8" s="29"/>
-      <c r="AM8" s="29"/>
-      <c r="AN8" s="29"/>
-      <c r="AO8" s="29"/>
-      <c r="AP8" s="29"/>
-      <c r="AQ8" s="32"/>
+      <c r="AI8" s="28"/>
+      <c r="AJ8" s="28"/>
+      <c r="AK8" s="28"/>
+      <c r="AL8" s="28"/>
+      <c r="AM8" s="28"/>
+      <c r="AN8" s="28"/>
+      <c r="AO8" s="28"/>
+      <c r="AP8" s="28"/>
+      <c r="AQ8" s="31"/>
     </row>
     <row r="9" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A9" s="28"/>
+      <c r="A9" s="27"/>
       <c r="B9" s="9"/>
       <c r="C9" s="10" t="str">
         <f t="shared" si="0"/>
@@ -2232,7 +2232,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AE9" s="35">
+      <c r="AE9" s="34">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
@@ -2248,18 +2248,18 @@
         <f t="shared" si="23"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AI9" s="29"/>
-      <c r="AJ9" s="29"/>
-      <c r="AK9" s="29"/>
-      <c r="AL9" s="29"/>
-      <c r="AM9" s="29"/>
-      <c r="AN9" s="29"/>
-      <c r="AO9" s="29"/>
-      <c r="AP9" s="29"/>
-      <c r="AQ9" s="32"/>
+      <c r="AI9" s="28"/>
+      <c r="AJ9" s="28"/>
+      <c r="AK9" s="28"/>
+      <c r="AL9" s="28"/>
+      <c r="AM9" s="28"/>
+      <c r="AN9" s="28"/>
+      <c r="AO9" s="28"/>
+      <c r="AP9" s="28"/>
+      <c r="AQ9" s="31"/>
     </row>
     <row r="10" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A10" s="28"/>
+      <c r="A10" s="27"/>
       <c r="B10" s="9"/>
       <c r="C10" s="10" t="str">
         <f t="shared" si="0"/>
@@ -2373,7 +2373,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AE10" s="35">
+      <c r="AE10" s="34">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
@@ -2389,18 +2389,18 @@
         <f t="shared" si="23"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AI10" s="29"/>
-      <c r="AJ10" s="29"/>
-      <c r="AK10" s="29"/>
-      <c r="AL10" s="29"/>
-      <c r="AM10" s="29"/>
-      <c r="AN10" s="29"/>
-      <c r="AO10" s="29"/>
-      <c r="AP10" s="29"/>
-      <c r="AQ10" s="32"/>
+      <c r="AI10" s="28"/>
+      <c r="AJ10" s="28"/>
+      <c r="AK10" s="28"/>
+      <c r="AL10" s="28"/>
+      <c r="AM10" s="28"/>
+      <c r="AN10" s="28"/>
+      <c r="AO10" s="28"/>
+      <c r="AP10" s="28"/>
+      <c r="AQ10" s="31"/>
     </row>
     <row r="11" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A11" s="28"/>
+      <c r="A11" s="27"/>
       <c r="B11" s="9"/>
       <c r="C11" s="10" t="str">
         <f t="shared" si="0"/>
@@ -2514,7 +2514,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AE11" s="35">
+      <c r="AE11" s="34">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
@@ -2530,18 +2530,18 @@
         <f t="shared" si="23"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AI11" s="29"/>
-      <c r="AJ11" s="29"/>
-      <c r="AK11" s="29"/>
-      <c r="AL11" s="29"/>
-      <c r="AM11" s="29"/>
-      <c r="AN11" s="29"/>
-      <c r="AO11" s="29"/>
-      <c r="AP11" s="29"/>
-      <c r="AQ11" s="32"/>
+      <c r="AI11" s="28"/>
+      <c r="AJ11" s="28"/>
+      <c r="AK11" s="28"/>
+      <c r="AL11" s="28"/>
+      <c r="AM11" s="28"/>
+      <c r="AN11" s="28"/>
+      <c r="AO11" s="28"/>
+      <c r="AP11" s="28"/>
+      <c r="AQ11" s="31"/>
     </row>
     <row r="12" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A12" s="28"/>
+      <c r="A12" s="27"/>
       <c r="B12" s="9"/>
       <c r="C12" s="10" t="str">
         <f t="shared" si="0"/>
@@ -2655,7 +2655,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AE12" s="35">
+      <c r="AE12" s="34">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
@@ -2671,18 +2671,18 @@
         <f t="shared" si="23"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AI12" s="29"/>
-      <c r="AJ12" s="29"/>
-      <c r="AK12" s="29"/>
-      <c r="AL12" s="29"/>
-      <c r="AM12" s="29"/>
-      <c r="AN12" s="29"/>
-      <c r="AO12" s="29"/>
-      <c r="AP12" s="29"/>
-      <c r="AQ12" s="37"/>
+      <c r="AI12" s="28"/>
+      <c r="AJ12" s="28"/>
+      <c r="AK12" s="28"/>
+      <c r="AL12" s="28"/>
+      <c r="AM12" s="28"/>
+      <c r="AN12" s="28"/>
+      <c r="AO12" s="28"/>
+      <c r="AP12" s="28"/>
+      <c r="AQ12" s="36"/>
     </row>
     <row r="13" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A13" s="28"/>
+      <c r="A13" s="27"/>
       <c r="B13" s="9"/>
       <c r="C13" s="10" t="str">
         <f t="shared" si="0"/>
@@ -2796,7 +2796,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AE13" s="35">
+      <c r="AE13" s="34">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
@@ -2812,18 +2812,18 @@
         <f t="shared" si="23"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AI13" s="29"/>
-      <c r="AJ13" s="29"/>
-      <c r="AK13" s="29"/>
-      <c r="AL13" s="29"/>
-      <c r="AM13" s="29"/>
-      <c r="AN13" s="29"/>
-      <c r="AO13" s="29"/>
-      <c r="AP13" s="29"/>
-      <c r="AQ13" s="37"/>
+      <c r="AI13" s="28"/>
+      <c r="AJ13" s="28"/>
+      <c r="AK13" s="28"/>
+      <c r="AL13" s="28"/>
+      <c r="AM13" s="28"/>
+      <c r="AN13" s="28"/>
+      <c r="AO13" s="28"/>
+      <c r="AP13" s="28"/>
+      <c r="AQ13" s="36"/>
     </row>
     <row r="14" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A14" s="28"/>
+      <c r="A14" s="27"/>
       <c r="B14" s="9"/>
       <c r="C14" s="10" t="str">
         <f t="shared" si="0"/>
@@ -2937,7 +2937,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AE14" s="35">
+      <c r="AE14" s="34">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
@@ -2953,18 +2953,18 @@
         <f t="shared" si="23"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AI14" s="29"/>
-      <c r="AJ14" s="29"/>
-      <c r="AK14" s="29"/>
-      <c r="AL14" s="29"/>
-      <c r="AM14" s="29"/>
-      <c r="AN14" s="29"/>
-      <c r="AO14" s="29"/>
-      <c r="AP14" s="29"/>
-      <c r="AQ14" s="37"/>
+      <c r="AI14" s="28"/>
+      <c r="AJ14" s="28"/>
+      <c r="AK14" s="28"/>
+      <c r="AL14" s="28"/>
+      <c r="AM14" s="28"/>
+      <c r="AN14" s="28"/>
+      <c r="AO14" s="28"/>
+      <c r="AP14" s="28"/>
+      <c r="AQ14" s="36"/>
     </row>
     <row r="15" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A15" s="28"/>
+      <c r="A15" s="27"/>
       <c r="B15" s="9"/>
       <c r="C15" s="10" t="str">
         <f t="shared" si="0"/>
@@ -3078,7 +3078,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AE15" s="35">
+      <c r="AE15" s="34">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
@@ -3094,18 +3094,18 @@
         <f t="shared" si="23"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AI15" s="29"/>
-      <c r="AJ15" s="29"/>
-      <c r="AK15" s="29"/>
-      <c r="AL15" s="29"/>
-      <c r="AM15" s="29"/>
-      <c r="AN15" s="29"/>
-      <c r="AO15" s="29"/>
-      <c r="AP15" s="29"/>
-      <c r="AQ15" s="37"/>
+      <c r="AI15" s="28"/>
+      <c r="AJ15" s="28"/>
+      <c r="AK15" s="28"/>
+      <c r="AL15" s="28"/>
+      <c r="AM15" s="28"/>
+      <c r="AN15" s="28"/>
+      <c r="AO15" s="28"/>
+      <c r="AP15" s="28"/>
+      <c r="AQ15" s="36"/>
     </row>
     <row r="16" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A16" s="28"/>
+      <c r="A16" s="27"/>
       <c r="B16" s="9"/>
       <c r="C16" s="10" t="str">
         <f t="shared" si="0"/>
@@ -3219,7 +3219,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AE16" s="35">
+      <c r="AE16" s="34">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
@@ -3235,18 +3235,18 @@
         <f t="shared" si="23"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AI16" s="29"/>
-      <c r="AJ16" s="29"/>
-      <c r="AK16" s="29"/>
-      <c r="AL16" s="29"/>
-      <c r="AM16" s="29"/>
-      <c r="AN16" s="29"/>
-      <c r="AO16" s="29"/>
-      <c r="AP16" s="29"/>
-      <c r="AQ16" s="37"/>
+      <c r="AI16" s="28"/>
+      <c r="AJ16" s="28"/>
+      <c r="AK16" s="28"/>
+      <c r="AL16" s="28"/>
+      <c r="AM16" s="28"/>
+      <c r="AN16" s="28"/>
+      <c r="AO16" s="28"/>
+      <c r="AP16" s="28"/>
+      <c r="AQ16" s="36"/>
     </row>
     <row r="17" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A17" s="28"/>
+      <c r="A17" s="27"/>
       <c r="B17" s="9"/>
       <c r="C17" s="10" t="str">
         <f t="shared" si="0"/>
@@ -3360,7 +3360,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AE17" s="35">
+      <c r="AE17" s="34">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
@@ -3376,18 +3376,18 @@
         <f t="shared" si="23"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AI17" s="29"/>
-      <c r="AJ17" s="29"/>
-      <c r="AK17" s="29"/>
-      <c r="AL17" s="29"/>
-      <c r="AM17" s="29"/>
-      <c r="AN17" s="29"/>
-      <c r="AO17" s="29"/>
-      <c r="AP17" s="29"/>
-      <c r="AQ17" s="37"/>
+      <c r="AI17" s="28"/>
+      <c r="AJ17" s="28"/>
+      <c r="AK17" s="28"/>
+      <c r="AL17" s="28"/>
+      <c r="AM17" s="28"/>
+      <c r="AN17" s="28"/>
+      <c r="AO17" s="28"/>
+      <c r="AP17" s="28"/>
+      <c r="AQ17" s="36"/>
     </row>
     <row r="18" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A18" s="28"/>
+      <c r="A18" s="27"/>
       <c r="B18" s="9"/>
       <c r="C18" s="10" t="str">
         <f t="shared" si="0"/>
@@ -3501,7 +3501,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AE18" s="35">
+      <c r="AE18" s="34">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
@@ -3517,18 +3517,18 @@
         <f t="shared" si="23"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AI18" s="29"/>
-      <c r="AJ18" s="29"/>
-      <c r="AK18" s="29"/>
-      <c r="AL18" s="29"/>
-      <c r="AM18" s="29"/>
-      <c r="AN18" s="29"/>
-      <c r="AO18" s="29"/>
-      <c r="AP18" s="29"/>
-      <c r="AQ18" s="37"/>
+      <c r="AI18" s="28"/>
+      <c r="AJ18" s="28"/>
+      <c r="AK18" s="28"/>
+      <c r="AL18" s="28"/>
+      <c r="AM18" s="28"/>
+      <c r="AN18" s="28"/>
+      <c r="AO18" s="28"/>
+      <c r="AP18" s="28"/>
+      <c r="AQ18" s="36"/>
     </row>
     <row r="19" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A19" s="28"/>
+      <c r="A19" s="27"/>
       <c r="B19" s="9"/>
       <c r="C19" s="10" t="str">
         <f t="shared" si="0"/>
@@ -3642,7 +3642,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AE19" s="35">
+      <c r="AE19" s="34">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
@@ -3658,18 +3658,18 @@
         <f t="shared" si="23"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AI19" s="29"/>
-      <c r="AJ19" s="29"/>
-      <c r="AK19" s="29"/>
-      <c r="AL19" s="29"/>
-      <c r="AM19" s="29"/>
-      <c r="AN19" s="29"/>
-      <c r="AO19" s="29"/>
-      <c r="AP19" s="29"/>
-      <c r="AQ19" s="37"/>
+      <c r="AI19" s="28"/>
+      <c r="AJ19" s="28"/>
+      <c r="AK19" s="28"/>
+      <c r="AL19" s="28"/>
+      <c r="AM19" s="28"/>
+      <c r="AN19" s="28"/>
+      <c r="AO19" s="28"/>
+      <c r="AP19" s="28"/>
+      <c r="AQ19" s="36"/>
     </row>
     <row r="20" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A20" s="28"/>
+      <c r="A20" s="27"/>
       <c r="B20" s="9"/>
       <c r="C20" s="10" t="str">
         <f t="shared" si="0"/>
@@ -3783,7 +3783,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AE20" s="35">
+      <c r="AE20" s="34">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
@@ -3799,18 +3799,18 @@
         <f t="shared" si="23"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AI20" s="29"/>
-      <c r="AJ20" s="29"/>
-      <c r="AK20" s="29"/>
-      <c r="AL20" s="29"/>
-      <c r="AM20" s="29"/>
-      <c r="AN20" s="29"/>
-      <c r="AO20" s="29"/>
-      <c r="AP20" s="29"/>
-      <c r="AQ20" s="37"/>
+      <c r="AI20" s="28"/>
+      <c r="AJ20" s="28"/>
+      <c r="AK20" s="28"/>
+      <c r="AL20" s="28"/>
+      <c r="AM20" s="28"/>
+      <c r="AN20" s="28"/>
+      <c r="AO20" s="28"/>
+      <c r="AP20" s="28"/>
+      <c r="AQ20" s="36"/>
     </row>
     <row r="21" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A21" s="28"/>
+      <c r="A21" s="27"/>
       <c r="B21" s="9"/>
       <c r="C21" s="10" t="str">
         <f t="shared" si="0"/>
@@ -3924,7 +3924,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AE21" s="35">
+      <c r="AE21" s="34">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
@@ -3940,18 +3940,18 @@
         <f t="shared" si="23"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AI21" s="29"/>
-      <c r="AJ21" s="29"/>
-      <c r="AK21" s="29"/>
-      <c r="AL21" s="29"/>
-      <c r="AM21" s="29"/>
-      <c r="AN21" s="29"/>
-      <c r="AO21" s="29"/>
-      <c r="AP21" s="29"/>
-      <c r="AQ21" s="37"/>
+      <c r="AI21" s="28"/>
+      <c r="AJ21" s="28"/>
+      <c r="AK21" s="28"/>
+      <c r="AL21" s="28"/>
+      <c r="AM21" s="28"/>
+      <c r="AN21" s="28"/>
+      <c r="AO21" s="28"/>
+      <c r="AP21" s="28"/>
+      <c r="AQ21" s="36"/>
     </row>
     <row r="22" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A22" s="28"/>
+      <c r="A22" s="27"/>
       <c r="B22" s="9"/>
       <c r="C22" s="10" t="str">
         <f t="shared" si="0"/>
@@ -4065,7 +4065,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AE22" s="35">
+      <c r="AE22" s="34">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
@@ -4081,18 +4081,18 @@
         <f t="shared" si="23"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AI22" s="29"/>
-      <c r="AJ22" s="29"/>
-      <c r="AK22" s="29"/>
-      <c r="AL22" s="29"/>
-      <c r="AM22" s="29"/>
-      <c r="AN22" s="29"/>
-      <c r="AO22" s="29"/>
-      <c r="AP22" s="29"/>
-      <c r="AQ22" s="37"/>
+      <c r="AI22" s="28"/>
+      <c r="AJ22" s="28"/>
+      <c r="AK22" s="28"/>
+      <c r="AL22" s="28"/>
+      <c r="AM22" s="28"/>
+      <c r="AN22" s="28"/>
+      <c r="AO22" s="28"/>
+      <c r="AP22" s="28"/>
+      <c r="AQ22" s="36"/>
     </row>
     <row r="23" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A23" s="28"/>
+      <c r="A23" s="27"/>
       <c r="B23" s="9"/>
       <c r="C23" s="10" t="str">
         <f t="shared" si="0"/>
@@ -4206,7 +4206,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AE23" s="35">
+      <c r="AE23" s="34">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
@@ -4222,18 +4222,18 @@
         <f t="shared" si="23"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AI23" s="29"/>
-      <c r="AJ23" s="29"/>
-      <c r="AK23" s="29"/>
-      <c r="AL23" s="29"/>
-      <c r="AM23" s="29"/>
-      <c r="AN23" s="29"/>
-      <c r="AO23" s="29"/>
-      <c r="AP23" s="29"/>
-      <c r="AQ23" s="37"/>
+      <c r="AI23" s="28"/>
+      <c r="AJ23" s="28"/>
+      <c r="AK23" s="28"/>
+      <c r="AL23" s="28"/>
+      <c r="AM23" s="28"/>
+      <c r="AN23" s="28"/>
+      <c r="AO23" s="28"/>
+      <c r="AP23" s="28"/>
+      <c r="AQ23" s="36"/>
     </row>
     <row r="24" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A24" s="28"/>
+      <c r="A24" s="27"/>
       <c r="B24" s="9"/>
       <c r="C24" s="10" t="str">
         <f t="shared" si="0"/>
@@ -4347,7 +4347,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AE24" s="35">
+      <c r="AE24" s="34">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
@@ -4363,18 +4363,18 @@
         <f t="shared" si="23"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AI24" s="29"/>
-      <c r="AJ24" s="29"/>
-      <c r="AK24" s="29"/>
-      <c r="AL24" s="29"/>
-      <c r="AM24" s="29"/>
-      <c r="AN24" s="29"/>
-      <c r="AO24" s="29"/>
-      <c r="AP24" s="29"/>
-      <c r="AQ24" s="37"/>
+      <c r="AI24" s="28"/>
+      <c r="AJ24" s="28"/>
+      <c r="AK24" s="28"/>
+      <c r="AL24" s="28"/>
+      <c r="AM24" s="28"/>
+      <c r="AN24" s="28"/>
+      <c r="AO24" s="28"/>
+      <c r="AP24" s="28"/>
+      <c r="AQ24" s="36"/>
     </row>
     <row r="25" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A25" s="28"/>
+      <c r="A25" s="27"/>
       <c r="B25" s="9"/>
       <c r="C25" s="10" t="str">
         <f t="shared" si="0"/>
@@ -4488,7 +4488,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AE25" s="35">
+      <c r="AE25" s="34">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
@@ -4504,18 +4504,18 @@
         <f t="shared" si="23"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AI25" s="29"/>
-      <c r="AJ25" s="29"/>
-      <c r="AK25" s="29"/>
-      <c r="AL25" s="29"/>
-      <c r="AM25" s="29"/>
-      <c r="AN25" s="29"/>
-      <c r="AO25" s="29"/>
-      <c r="AP25" s="29"/>
-      <c r="AQ25" s="37"/>
+      <c r="AI25" s="28"/>
+      <c r="AJ25" s="28"/>
+      <c r="AK25" s="28"/>
+      <c r="AL25" s="28"/>
+      <c r="AM25" s="28"/>
+      <c r="AN25" s="28"/>
+      <c r="AO25" s="28"/>
+      <c r="AP25" s="28"/>
+      <c r="AQ25" s="36"/>
     </row>
     <row r="26" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A26" s="28"/>
+      <c r="A26" s="27"/>
       <c r="B26" s="9"/>
       <c r="C26" s="10" t="str">
         <f t="shared" si="0"/>
@@ -4629,7 +4629,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AE26" s="35">
+      <c r="AE26" s="34">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
@@ -4645,18 +4645,18 @@
         <f t="shared" si="23"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AI26" s="29"/>
-      <c r="AJ26" s="29"/>
-      <c r="AK26" s="29"/>
-      <c r="AL26" s="29"/>
-      <c r="AM26" s="29"/>
-      <c r="AN26" s="29"/>
-      <c r="AO26" s="29"/>
-      <c r="AP26" s="29"/>
-      <c r="AQ26" s="37"/>
+      <c r="AI26" s="28"/>
+      <c r="AJ26" s="28"/>
+      <c r="AK26" s="28"/>
+      <c r="AL26" s="28"/>
+      <c r="AM26" s="28"/>
+      <c r="AN26" s="28"/>
+      <c r="AO26" s="28"/>
+      <c r="AP26" s="28"/>
+      <c r="AQ26" s="36"/>
     </row>
     <row r="27" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A27" s="28"/>
+      <c r="A27" s="27"/>
       <c r="B27" s="9"/>
       <c r="C27" s="10" t="str">
         <f t="shared" si="0"/>
@@ -4770,7 +4770,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AE27" s="35">
+      <c r="AE27" s="34">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
@@ -4786,18 +4786,18 @@
         <f t="shared" si="23"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AI27" s="29"/>
-      <c r="AJ27" s="29"/>
-      <c r="AK27" s="29"/>
-      <c r="AL27" s="29"/>
-      <c r="AM27" s="29"/>
-      <c r="AN27" s="29"/>
-      <c r="AO27" s="29"/>
-      <c r="AP27" s="29"/>
-      <c r="AQ27" s="37"/>
+      <c r="AI27" s="28"/>
+      <c r="AJ27" s="28"/>
+      <c r="AK27" s="28"/>
+      <c r="AL27" s="28"/>
+      <c r="AM27" s="28"/>
+      <c r="AN27" s="28"/>
+      <c r="AO27" s="28"/>
+      <c r="AP27" s="28"/>
+      <c r="AQ27" s="36"/>
     </row>
     <row r="28" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A28" s="28"/>
+      <c r="A28" s="27"/>
       <c r="B28" s="9"/>
       <c r="C28" s="10" t="str">
         <f t="shared" si="0"/>
@@ -4911,7 +4911,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AE28" s="35">
+      <c r="AE28" s="34">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
@@ -4927,18 +4927,18 @@
         <f t="shared" si="23"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AI28" s="29"/>
-      <c r="AJ28" s="29"/>
-      <c r="AK28" s="29"/>
-      <c r="AL28" s="29"/>
-      <c r="AM28" s="29"/>
-      <c r="AN28" s="29"/>
-      <c r="AO28" s="29"/>
-      <c r="AP28" s="29"/>
-      <c r="AQ28" s="37"/>
+      <c r="AI28" s="28"/>
+      <c r="AJ28" s="28"/>
+      <c r="AK28" s="28"/>
+      <c r="AL28" s="28"/>
+      <c r="AM28" s="28"/>
+      <c r="AN28" s="28"/>
+      <c r="AO28" s="28"/>
+      <c r="AP28" s="28"/>
+      <c r="AQ28" s="36"/>
     </row>
     <row r="29" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A29" s="28"/>
+      <c r="A29" s="27"/>
       <c r="B29" s="9"/>
       <c r="C29" s="10" t="str">
         <f t="shared" si="0"/>
@@ -5052,7 +5052,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AE29" s="35">
+      <c r="AE29" s="34">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
@@ -5068,18 +5068,18 @@
         <f t="shared" si="23"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AI29" s="29"/>
-      <c r="AJ29" s="29"/>
-      <c r="AK29" s="29"/>
-      <c r="AL29" s="29"/>
-      <c r="AM29" s="29"/>
-      <c r="AN29" s="29"/>
-      <c r="AO29" s="29"/>
-      <c r="AP29" s="29"/>
-      <c r="AQ29" s="37"/>
+      <c r="AI29" s="28"/>
+      <c r="AJ29" s="28"/>
+      <c r="AK29" s="28"/>
+      <c r="AL29" s="28"/>
+      <c r="AM29" s="28"/>
+      <c r="AN29" s="28"/>
+      <c r="AO29" s="28"/>
+      <c r="AP29" s="28"/>
+      <c r="AQ29" s="36"/>
     </row>
     <row r="30" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A30" s="28"/>
+      <c r="A30" s="27"/>
       <c r="B30" s="9"/>
       <c r="C30" s="10" t="str">
         <f t="shared" si="0"/>
@@ -5146,11 +5146,11 @@
         <v>0</v>
       </c>
       <c r="S30" s="12">
-        <f t="shared" ref="S30:S50" si="32">M30+O30+Q30</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="T30" s="11">
-        <f t="shared" ref="T30:T50" si="33">ROUNDUP(U30*2,0)/2</f>
+        <f t="shared" ref="T30:T50" si="32">ROUNDUP(U30*2,0)/2</f>
         <v>0</v>
       </c>
       <c r="U30" s="12">
@@ -5158,7 +5158,7 @@
         <v>0</v>
       </c>
       <c r="V30" s="12">
-        <f t="shared" ref="V30:V50" si="34">ROUNDUP(W30*2,0)/2</f>
+        <f t="shared" ref="V30:V50" si="33">ROUNDUP(W30*2,0)/2</f>
         <v>0</v>
       </c>
       <c r="W30" s="12">
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="X30" s="12">
-        <f t="shared" ref="X30:X50" si="35">ROUNDUP(Y30*2,0)/2</f>
+        <f t="shared" ref="X30:X50" si="34">ROUNDUP(Y30*2,0)/2</f>
         <v>0</v>
       </c>
       <c r="Y30" s="12">
@@ -5174,7 +5174,7 @@
         <v>0</v>
       </c>
       <c r="Z30" s="12">
-        <f t="shared" ref="Z30:Z50" si="36">ROUNDUP(AA30*2,0)/2</f>
+        <f t="shared" ref="Z30:Z50" si="35">ROUNDUP(AA30*2,0)/2</f>
         <v>0</v>
       </c>
       <c r="AA30" s="12">
@@ -5182,7 +5182,7 @@
         <v>0</v>
       </c>
       <c r="AB30" s="12">
-        <f t="shared" ref="AB30:AB50" si="37">T30+V30+X30+Z30</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AC30" s="12">
@@ -5193,12 +5193,12 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AE30" s="35">
-        <f t="shared" ref="AE30:AE50" si="38">AD30/15</f>
+      <c r="AE30" s="34">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AF30" s="7" t="e">
-        <f t="shared" ref="AF30:AF50" si="39">K30+AD30</f>
+        <f t="shared" ref="AF30:AF50" si="36">K30+AD30</f>
         <v>#VALUE!</v>
       </c>
       <c r="AG30" s="11" t="e">
@@ -5211,7 +5211,7 @@
       </c>
     </row>
     <row r="31" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A31" s="28"/>
+      <c r="A31" s="27"/>
       <c r="B31" s="9"/>
       <c r="C31" s="10" t="str">
         <f t="shared" si="0"/>
@@ -5278,11 +5278,11 @@
         <v>0</v>
       </c>
       <c r="S31" s="12">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="T31" s="11">
         <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="T31" s="11">
-        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="U31" s="12">
@@ -5290,7 +5290,7 @@
         <v>0</v>
       </c>
       <c r="V31" s="12">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="W31" s="12">
@@ -5298,7 +5298,7 @@
         <v>0</v>
       </c>
       <c r="X31" s="12">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="Y31" s="12">
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="Z31" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AA31" s="12">
@@ -5314,7 +5314,7 @@
         <v>0</v>
       </c>
       <c r="AB31" s="12">
-        <f t="shared" si="37"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AC31" s="12">
@@ -5325,12 +5325,12 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AE31" s="35">
-        <f t="shared" si="38"/>
+      <c r="AE31" s="34">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AF31" s="7" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="36"/>
         <v>#VALUE!</v>
       </c>
       <c r="AG31" s="11" t="e">
@@ -5343,7 +5343,7 @@
       </c>
     </row>
     <row r="32" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A32" s="28"/>
+      <c r="A32" s="27"/>
       <c r="B32" s="9"/>
       <c r="C32" s="10" t="str">
         <f t="shared" si="0"/>
@@ -5410,11 +5410,11 @@
         <v>0</v>
       </c>
       <c r="S32" s="12">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="T32" s="11">
         <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="T32" s="11">
-        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="U32" s="12">
@@ -5422,7 +5422,7 @@
         <v>0</v>
       </c>
       <c r="V32" s="12">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="W32" s="12">
@@ -5430,7 +5430,7 @@
         <v>0</v>
       </c>
       <c r="X32" s="12">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="Y32" s="12">
@@ -5438,7 +5438,7 @@
         <v>0</v>
       </c>
       <c r="Z32" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AA32" s="12">
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="AB32" s="12">
-        <f t="shared" si="37"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AC32" s="12">
@@ -5457,12 +5457,12 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AE32" s="35">
-        <f t="shared" si="38"/>
+      <c r="AE32" s="34">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AF32" s="7" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="36"/>
         <v>#VALUE!</v>
       </c>
       <c r="AG32" s="11" t="e">
@@ -5475,7 +5475,7 @@
       </c>
     </row>
     <row r="33" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A33" s="28"/>
+      <c r="A33" s="27"/>
       <c r="B33" s="9"/>
       <c r="C33" s="10" t="str">
         <f t="shared" si="0"/>
@@ -5542,11 +5542,11 @@
         <v>0</v>
       </c>
       <c r="S33" s="12">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="T33" s="11">
         <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="T33" s="11">
-        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="U33" s="12">
@@ -5554,7 +5554,7 @@
         <v>0</v>
       </c>
       <c r="V33" s="12">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="W33" s="12">
@@ -5562,7 +5562,7 @@
         <v>0</v>
       </c>
       <c r="X33" s="12">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="Y33" s="12">
@@ -5570,7 +5570,7 @@
         <v>0</v>
       </c>
       <c r="Z33" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AA33" s="12">
@@ -5578,7 +5578,7 @@
         <v>0</v>
       </c>
       <c r="AB33" s="12">
-        <f t="shared" si="37"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AC33" s="12">
@@ -5589,12 +5589,12 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AE33" s="35">
-        <f t="shared" si="38"/>
+      <c r="AE33" s="34">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AF33" s="7" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="36"/>
         <v>#VALUE!</v>
       </c>
       <c r="AG33" s="11" t="e">
@@ -5607,38 +5607,38 @@
       </c>
     </row>
     <row r="34" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A34" s="28"/>
+      <c r="A34" s="27"/>
       <c r="B34" s="9"/>
       <c r="C34" s="10" t="str">
-        <f t="shared" ref="C34:C50" si="40">MID(AI34,2,2)</f>
+        <f t="shared" ref="C34:C50" si="37">MID(AI34,2,2)</f>
         <v/>
       </c>
       <c r="D34" s="10" t="str">
-        <f t="shared" ref="D34:D50" si="41">MID(AJ34,2,2)</f>
+        <f t="shared" ref="D34:D50" si="38">MID(AJ34,2,2)</f>
         <v/>
       </c>
       <c r="E34" s="10" t="str">
-        <f t="shared" ref="E34:E50" si="42">MID(AK34,2,2)</f>
+        <f t="shared" ref="E34:E50" si="39">MID(AK34,2,2)</f>
         <v/>
       </c>
       <c r="F34" s="10" t="str">
-        <f t="shared" ref="F34:F50" si="43">MID(AL34,2,2)</f>
+        <f t="shared" ref="F34:F50" si="40">MID(AL34,2,2)</f>
         <v/>
       </c>
       <c r="G34" s="10" t="str">
-        <f t="shared" ref="G34:G50" si="44">MID(AM34,2,2)</f>
+        <f t="shared" ref="G34:G50" si="41">MID(AM34,2,2)</f>
         <v/>
       </c>
       <c r="H34" s="10" t="str">
-        <f t="shared" ref="H34:H50" si="45">MID(AN34,2,2)</f>
+        <f t="shared" ref="H34:H50" si="42">MID(AN34,2,2)</f>
         <v/>
       </c>
       <c r="I34" s="10" t="str">
-        <f t="shared" ref="I34:I50" si="46">MID(AO34,2,2)</f>
+        <f t="shared" ref="I34:I50" si="43">MID(AO34,2,2)</f>
         <v/>
       </c>
       <c r="J34" s="10" t="str">
-        <f t="shared" ref="J34:J50" si="47">MID(AP34,2,2)</f>
+        <f t="shared" ref="J34:J50" si="44">MID(AP34,2,2)</f>
         <v/>
       </c>
       <c r="K34" s="2" t="e">
@@ -5674,11 +5674,11 @@
         <v>0</v>
       </c>
       <c r="S34" s="12">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="T34" s="11">
         <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="T34" s="11">
-        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="U34" s="12">
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="V34" s="12">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="W34" s="12">
@@ -5694,7 +5694,7 @@
         <v>0</v>
       </c>
       <c r="X34" s="12">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="Y34" s="12">
@@ -5702,7 +5702,7 @@
         <v>0</v>
       </c>
       <c r="Z34" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AA34" s="12">
@@ -5710,7 +5710,7 @@
         <v>0</v>
       </c>
       <c r="AB34" s="12">
-        <f t="shared" si="37"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AC34" s="12">
@@ -5721,12 +5721,12 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AE34" s="35">
-        <f t="shared" si="38"/>
+      <c r="AE34" s="34">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AF34" s="7" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="36"/>
         <v>#VALUE!</v>
       </c>
       <c r="AG34" s="11" t="e">
@@ -5739,38 +5739,38 @@
       </c>
     </row>
     <row r="35" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A35" s="28"/>
+      <c r="A35" s="27"/>
       <c r="B35" s="9"/>
       <c r="C35" s="10" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="D35" s="10" t="str">
+        <f t="shared" si="38"/>
+        <v/>
+      </c>
+      <c r="E35" s="10" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="F35" s="10" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="D35" s="10" t="str">
+      <c r="G35" s="10" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="E35" s="10" t="str">
+      <c r="H35" s="10" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="F35" s="10" t="str">
+      <c r="I35" s="10" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="G35" s="10" t="str">
+      <c r="J35" s="10" t="str">
         <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="H35" s="10" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="I35" s="10" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="J35" s="10" t="str">
-        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="K35" s="2" t="e">
@@ -5806,11 +5806,11 @@
         <v>0</v>
       </c>
       <c r="S35" s="12">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="T35" s="11">
         <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="T35" s="11">
-        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="U35" s="12">
@@ -5818,7 +5818,7 @@
         <v>0</v>
       </c>
       <c r="V35" s="12">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="W35" s="12">
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="X35" s="12">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="Y35" s="12">
@@ -5834,7 +5834,7 @@
         <v>0</v>
       </c>
       <c r="Z35" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AA35" s="12">
@@ -5842,7 +5842,7 @@
         <v>0</v>
       </c>
       <c r="AB35" s="12">
-        <f t="shared" si="37"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AC35" s="12">
@@ -5853,12 +5853,12 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AE35" s="35">
-        <f t="shared" si="38"/>
+      <c r="AE35" s="34">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AF35" s="7" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="36"/>
         <v>#VALUE!</v>
       </c>
       <c r="AG35" s="11" t="e">
@@ -5871,38 +5871,38 @@
       </c>
     </row>
     <row r="36" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A36" s="28"/>
+      <c r="A36" s="27"/>
       <c r="B36" s="9"/>
       <c r="C36" s="10" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="D36" s="10" t="str">
+        <f t="shared" si="38"/>
+        <v/>
+      </c>
+      <c r="E36" s="10" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="F36" s="10" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="D36" s="10" t="str">
+      <c r="G36" s="10" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="E36" s="10" t="str">
+      <c r="H36" s="10" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="F36" s="10" t="str">
+      <c r="I36" s="10" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="G36" s="10" t="str">
+      <c r="J36" s="10" t="str">
         <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="H36" s="10" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="I36" s="10" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="J36" s="10" t="str">
-        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="K36" s="2" t="e">
@@ -5938,11 +5938,11 @@
         <v>0</v>
       </c>
       <c r="S36" s="12">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="T36" s="11">
         <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="T36" s="11">
-        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="U36" s="12">
@@ -5950,7 +5950,7 @@
         <v>0</v>
       </c>
       <c r="V36" s="12">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="W36" s="12">
@@ -5958,7 +5958,7 @@
         <v>0</v>
       </c>
       <c r="X36" s="12">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="Y36" s="12">
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="Z36" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AA36" s="12">
@@ -5974,7 +5974,7 @@
         <v>0</v>
       </c>
       <c r="AB36" s="12">
-        <f t="shared" si="37"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AC36" s="12">
@@ -5985,12 +5985,12 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AE36" s="35">
-        <f t="shared" si="38"/>
+      <c r="AE36" s="34">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AF36" s="7" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="36"/>
         <v>#VALUE!</v>
       </c>
       <c r="AG36" s="11" t="e">
@@ -6003,38 +6003,38 @@
       </c>
     </row>
     <row r="37" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A37" s="28"/>
+      <c r="A37" s="27"/>
       <c r="B37" s="9"/>
       <c r="C37" s="10" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="D37" s="10" t="str">
+        <f t="shared" si="38"/>
+        <v/>
+      </c>
+      <c r="E37" s="10" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="F37" s="10" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="D37" s="10" t="str">
+      <c r="G37" s="10" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="E37" s="10" t="str">
+      <c r="H37" s="10" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="F37" s="10" t="str">
+      <c r="I37" s="10" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="G37" s="10" t="str">
+      <c r="J37" s="10" t="str">
         <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="H37" s="10" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="I37" s="10" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="J37" s="10" t="str">
-        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="K37" s="2" t="e">
@@ -6070,11 +6070,11 @@
         <v>0</v>
       </c>
       <c r="S37" s="12">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="T37" s="11">
         <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="T37" s="11">
-        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="U37" s="12">
@@ -6082,7 +6082,7 @@
         <v>0</v>
       </c>
       <c r="V37" s="12">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="W37" s="12">
@@ -6090,7 +6090,7 @@
         <v>0</v>
       </c>
       <c r="X37" s="12">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="Y37" s="12">
@@ -6098,7 +6098,7 @@
         <v>0</v>
       </c>
       <c r="Z37" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AA37" s="12">
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="AB37" s="12">
-        <f t="shared" si="37"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AC37" s="12">
@@ -6117,12 +6117,12 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AE37" s="35">
-        <f t="shared" si="38"/>
+      <c r="AE37" s="34">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AF37" s="7" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="36"/>
         <v>#VALUE!</v>
       </c>
       <c r="AG37" s="11" t="e">
@@ -6135,38 +6135,38 @@
       </c>
     </row>
     <row r="38" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A38" s="28"/>
+      <c r="A38" s="27"/>
       <c r="B38" s="9"/>
       <c r="C38" s="10" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="D38" s="10" t="str">
+        <f t="shared" si="38"/>
+        <v/>
+      </c>
+      <c r="E38" s="10" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="F38" s="10" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="D38" s="10" t="str">
+      <c r="G38" s="10" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="E38" s="10" t="str">
+      <c r="H38" s="10" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="F38" s="10" t="str">
+      <c r="I38" s="10" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="G38" s="10" t="str">
+      <c r="J38" s="10" t="str">
         <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="H38" s="10" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="I38" s="10" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="J38" s="10" t="str">
-        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="K38" s="2" t="e">
@@ -6202,11 +6202,11 @@
         <v>0</v>
       </c>
       <c r="S38" s="12">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="T38" s="11">
         <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="T38" s="11">
-        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="U38" s="12">
@@ -6214,7 +6214,7 @@
         <v>0</v>
       </c>
       <c r="V38" s="12">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="W38" s="12">
@@ -6222,7 +6222,7 @@
         <v>0</v>
       </c>
       <c r="X38" s="12">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="Y38" s="12">
@@ -6230,7 +6230,7 @@
         <v>0</v>
       </c>
       <c r="Z38" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AA38" s="12">
@@ -6238,7 +6238,7 @@
         <v>0</v>
       </c>
       <c r="AB38" s="12">
-        <f t="shared" si="37"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AC38" s="12">
@@ -6249,12 +6249,12 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AE38" s="35">
-        <f t="shared" si="38"/>
+      <c r="AE38" s="34">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AF38" s="7" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="36"/>
         <v>#VALUE!</v>
       </c>
       <c r="AG38" s="11" t="e">
@@ -6267,38 +6267,38 @@
       </c>
     </row>
     <row r="39" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A39" s="28"/>
+      <c r="A39" s="27"/>
       <c r="B39" s="9"/>
       <c r="C39" s="10" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="D39" s="10" t="str">
+        <f t="shared" si="38"/>
+        <v/>
+      </c>
+      <c r="E39" s="10" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="F39" s="10" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="D39" s="10" t="str">
+      <c r="G39" s="10" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="E39" s="10" t="str">
+      <c r="H39" s="10" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="F39" s="10" t="str">
+      <c r="I39" s="10" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="G39" s="10" t="str">
+      <c r="J39" s="10" t="str">
         <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="H39" s="10" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="I39" s="10" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="J39" s="10" t="str">
-        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="K39" s="2" t="e">
@@ -6334,11 +6334,11 @@
         <v>0</v>
       </c>
       <c r="S39" s="12">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="T39" s="11">
         <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="T39" s="11">
-        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="U39" s="12">
@@ -6346,7 +6346,7 @@
         <v>0</v>
       </c>
       <c r="V39" s="12">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="W39" s="12">
@@ -6354,7 +6354,7 @@
         <v>0</v>
       </c>
       <c r="X39" s="12">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="Y39" s="12">
@@ -6362,7 +6362,7 @@
         <v>0</v>
       </c>
       <c r="Z39" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AA39" s="12">
@@ -6370,7 +6370,7 @@
         <v>0</v>
       </c>
       <c r="AB39" s="12">
-        <f t="shared" si="37"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AC39" s="12">
@@ -6381,12 +6381,12 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AE39" s="35">
-        <f t="shared" si="38"/>
+      <c r="AE39" s="34">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AF39" s="7" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="36"/>
         <v>#VALUE!</v>
       </c>
       <c r="AG39" s="11" t="e">
@@ -6399,38 +6399,38 @@
       </c>
     </row>
     <row r="40" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A40" s="28"/>
+      <c r="A40" s="27"/>
       <c r="B40" s="9"/>
       <c r="C40" s="10" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="D40" s="10" t="str">
+        <f t="shared" si="38"/>
+        <v/>
+      </c>
+      <c r="E40" s="10" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="F40" s="10" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="D40" s="10" t="str">
+      <c r="G40" s="10" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="E40" s="10" t="str">
+      <c r="H40" s="10" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="F40" s="10" t="str">
+      <c r="I40" s="10" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="G40" s="10" t="str">
+      <c r="J40" s="10" t="str">
         <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="H40" s="10" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="I40" s="10" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="J40" s="10" t="str">
-        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="K40" s="2" t="e">
@@ -6466,11 +6466,11 @@
         <v>0</v>
       </c>
       <c r="S40" s="12">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="T40" s="11">
         <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="T40" s="11">
-        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="U40" s="12">
@@ -6478,7 +6478,7 @@
         <v>0</v>
       </c>
       <c r="V40" s="12">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="W40" s="12">
@@ -6486,7 +6486,7 @@
         <v>0</v>
       </c>
       <c r="X40" s="12">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="Y40" s="12">
@@ -6494,7 +6494,7 @@
         <v>0</v>
       </c>
       <c r="Z40" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AA40" s="12">
@@ -6502,7 +6502,7 @@
         <v>0</v>
       </c>
       <c r="AB40" s="12">
-        <f t="shared" si="37"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AC40" s="12">
@@ -6513,12 +6513,12 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AE40" s="35">
-        <f t="shared" si="38"/>
+      <c r="AE40" s="34">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AF40" s="7" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="36"/>
         <v>#VALUE!</v>
       </c>
       <c r="AG40" s="11" t="e">
@@ -6531,38 +6531,38 @@
       </c>
     </row>
     <row r="41" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A41" s="28"/>
+      <c r="A41" s="27"/>
       <c r="B41" s="9"/>
       <c r="C41" s="10" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="D41" s="10" t="str">
+        <f t="shared" si="38"/>
+        <v/>
+      </c>
+      <c r="E41" s="10" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="F41" s="10" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="D41" s="10" t="str">
+      <c r="G41" s="10" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="E41" s="10" t="str">
+      <c r="H41" s="10" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="F41" s="10" t="str">
+      <c r="I41" s="10" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="G41" s="10" t="str">
+      <c r="J41" s="10" t="str">
         <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="H41" s="10" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="I41" s="10" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="J41" s="10" t="str">
-        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="K41" s="2" t="e">
@@ -6598,11 +6598,11 @@
         <v>0</v>
       </c>
       <c r="S41" s="12">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="T41" s="11">
         <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="T41" s="11">
-        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="U41" s="12">
@@ -6610,7 +6610,7 @@
         <v>0</v>
       </c>
       <c r="V41" s="12">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="W41" s="12">
@@ -6618,7 +6618,7 @@
         <v>0</v>
       </c>
       <c r="X41" s="12">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="Y41" s="12">
@@ -6626,7 +6626,7 @@
         <v>0</v>
       </c>
       <c r="Z41" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AA41" s="12">
@@ -6634,7 +6634,7 @@
         <v>0</v>
       </c>
       <c r="AB41" s="12">
-        <f t="shared" si="37"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AC41" s="12">
@@ -6645,12 +6645,12 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AE41" s="35">
-        <f t="shared" si="38"/>
+      <c r="AE41" s="34">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AF41" s="7" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="36"/>
         <v>#VALUE!</v>
       </c>
       <c r="AG41" s="11" t="e">
@@ -6663,38 +6663,38 @@
       </c>
     </row>
     <row r="42" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A42" s="28"/>
+      <c r="A42" s="27"/>
       <c r="B42" s="9"/>
       <c r="C42" s="10" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="D42" s="10" t="str">
+        <f t="shared" si="38"/>
+        <v/>
+      </c>
+      <c r="E42" s="10" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="F42" s="10" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="D42" s="10" t="str">
+      <c r="G42" s="10" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="E42" s="10" t="str">
+      <c r="H42" s="10" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="F42" s="10" t="str">
+      <c r="I42" s="10" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="G42" s="10" t="str">
+      <c r="J42" s="10" t="str">
         <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="H42" s="10" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="I42" s="10" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="J42" s="10" t="str">
-        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="K42" s="2" t="e">
@@ -6730,11 +6730,11 @@
         <v>0</v>
       </c>
       <c r="S42" s="12">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="T42" s="11">
         <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="T42" s="11">
-        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="U42" s="12">
@@ -6742,7 +6742,7 @@
         <v>0</v>
       </c>
       <c r="V42" s="12">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="W42" s="12">
@@ -6750,7 +6750,7 @@
         <v>0</v>
       </c>
       <c r="X42" s="12">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="Y42" s="12">
@@ -6758,7 +6758,7 @@
         <v>0</v>
       </c>
       <c r="Z42" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AA42" s="12">
@@ -6766,7 +6766,7 @@
         <v>0</v>
       </c>
       <c r="AB42" s="12">
-        <f t="shared" si="37"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AC42" s="12">
@@ -6777,12 +6777,12 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AE42" s="35">
-        <f t="shared" si="38"/>
+      <c r="AE42" s="34">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AF42" s="7" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="36"/>
         <v>#VALUE!</v>
       </c>
       <c r="AG42" s="11" t="e">
@@ -6795,38 +6795,38 @@
       </c>
     </row>
     <row r="43" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A43" s="28"/>
+      <c r="A43" s="27"/>
       <c r="B43" s="9"/>
       <c r="C43" s="10" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="D43" s="10" t="str">
+        <f t="shared" si="38"/>
+        <v/>
+      </c>
+      <c r="E43" s="10" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="F43" s="10" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="D43" s="10" t="str">
+      <c r="G43" s="10" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="E43" s="10" t="str">
+      <c r="H43" s="10" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="F43" s="10" t="str">
+      <c r="I43" s="10" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="G43" s="10" t="str">
+      <c r="J43" s="10" t="str">
         <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="H43" s="10" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="I43" s="10" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="J43" s="10" t="str">
-        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="K43" s="2" t="e">
@@ -6862,11 +6862,11 @@
         <v>0</v>
       </c>
       <c r="S43" s="12">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="T43" s="11">
         <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="T43" s="11">
-        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="U43" s="12">
@@ -6874,7 +6874,7 @@
         <v>0</v>
       </c>
       <c r="V43" s="12">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="W43" s="12">
@@ -6882,7 +6882,7 @@
         <v>0</v>
       </c>
       <c r="X43" s="12">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="Y43" s="12">
@@ -6890,7 +6890,7 @@
         <v>0</v>
       </c>
       <c r="Z43" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AA43" s="12">
@@ -6898,7 +6898,7 @@
         <v>0</v>
       </c>
       <c r="AB43" s="12">
-        <f t="shared" si="37"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AC43" s="12">
@@ -6909,12 +6909,12 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AE43" s="35">
-        <f t="shared" si="38"/>
+      <c r="AE43" s="34">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AF43" s="7" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="36"/>
         <v>#VALUE!</v>
       </c>
       <c r="AG43" s="11" t="e">
@@ -6927,38 +6927,38 @@
       </c>
     </row>
     <row r="44" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A44" s="28"/>
+      <c r="A44" s="27"/>
       <c r="B44" s="9"/>
       <c r="C44" s="10" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="D44" s="10" t="str">
+        <f t="shared" si="38"/>
+        <v/>
+      </c>
+      <c r="E44" s="10" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="F44" s="10" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="D44" s="10" t="str">
+      <c r="G44" s="10" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="E44" s="10" t="str">
+      <c r="H44" s="10" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="F44" s="10" t="str">
+      <c r="I44" s="10" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="G44" s="10" t="str">
+      <c r="J44" s="10" t="str">
         <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="H44" s="10" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="I44" s="10" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="J44" s="10" t="str">
-        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="K44" s="2" t="e">
@@ -6994,11 +6994,11 @@
         <v>0</v>
       </c>
       <c r="S44" s="12">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="T44" s="11">
         <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="T44" s="11">
-        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="U44" s="12">
@@ -7006,7 +7006,7 @@
         <v>0</v>
       </c>
       <c r="V44" s="12">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="W44" s="12">
@@ -7014,7 +7014,7 @@
         <v>0</v>
       </c>
       <c r="X44" s="12">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="Y44" s="12">
@@ -7022,7 +7022,7 @@
         <v>0</v>
       </c>
       <c r="Z44" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AA44" s="12">
@@ -7030,7 +7030,7 @@
         <v>0</v>
       </c>
       <c r="AB44" s="12">
-        <f t="shared" si="37"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AC44" s="12">
@@ -7041,12 +7041,12 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AE44" s="35">
-        <f t="shared" si="38"/>
+      <c r="AE44" s="34">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AF44" s="7" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="36"/>
         <v>#VALUE!</v>
       </c>
       <c r="AG44" s="11" t="e">
@@ -7059,38 +7059,38 @@
       </c>
     </row>
     <row r="45" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A45" s="28"/>
+      <c r="A45" s="27"/>
       <c r="B45" s="9"/>
       <c r="C45" s="10" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="D45" s="10" t="str">
+        <f t="shared" si="38"/>
+        <v/>
+      </c>
+      <c r="E45" s="10" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="F45" s="10" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="D45" s="10" t="str">
+      <c r="G45" s="10" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="E45" s="10" t="str">
+      <c r="H45" s="10" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="F45" s="10" t="str">
+      <c r="I45" s="10" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="G45" s="10" t="str">
+      <c r="J45" s="10" t="str">
         <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="H45" s="10" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="I45" s="10" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="J45" s="10" t="str">
-        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="K45" s="2" t="e">
@@ -7126,11 +7126,11 @@
         <v>0</v>
       </c>
       <c r="S45" s="12">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="T45" s="11">
         <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="T45" s="11">
-        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="U45" s="12">
@@ -7138,7 +7138,7 @@
         <v>0</v>
       </c>
       <c r="V45" s="12">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="W45" s="12">
@@ -7146,7 +7146,7 @@
         <v>0</v>
       </c>
       <c r="X45" s="12">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="Y45" s="12">
@@ -7154,7 +7154,7 @@
         <v>0</v>
       </c>
       <c r="Z45" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AA45" s="12">
@@ -7162,7 +7162,7 @@
         <v>0</v>
       </c>
       <c r="AB45" s="12">
-        <f t="shared" si="37"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AC45" s="12">
@@ -7173,12 +7173,12 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AE45" s="35">
-        <f t="shared" si="38"/>
+      <c r="AE45" s="34">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AF45" s="7" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="36"/>
         <v>#VALUE!</v>
       </c>
       <c r="AG45" s="11" t="e">
@@ -7191,38 +7191,38 @@
       </c>
     </row>
     <row r="46" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A46" s="28"/>
+      <c r="A46" s="27"/>
       <c r="B46" s="9"/>
       <c r="C46" s="10" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="D46" s="10" t="str">
+        <f t="shared" si="38"/>
+        <v/>
+      </c>
+      <c r="E46" s="10" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="F46" s="10" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="D46" s="10" t="str">
+      <c r="G46" s="10" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="E46" s="10" t="str">
+      <c r="H46" s="10" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="F46" s="10" t="str">
+      <c r="I46" s="10" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="G46" s="10" t="str">
+      <c r="J46" s="10" t="str">
         <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="H46" s="10" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="I46" s="10" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="J46" s="10" t="str">
-        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="K46" s="2" t="e">
@@ -7258,11 +7258,11 @@
         <v>0</v>
       </c>
       <c r="S46" s="12">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="T46" s="11">
         <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="T46" s="11">
-        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="U46" s="12">
@@ -7270,7 +7270,7 @@
         <v>0</v>
       </c>
       <c r="V46" s="12">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="W46" s="12">
@@ -7278,7 +7278,7 @@
         <v>0</v>
       </c>
       <c r="X46" s="12">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="Y46" s="12">
@@ -7286,7 +7286,7 @@
         <v>0</v>
       </c>
       <c r="Z46" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AA46" s="12">
@@ -7294,7 +7294,7 @@
         <v>0</v>
       </c>
       <c r="AB46" s="12">
-        <f t="shared" si="37"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AC46" s="12">
@@ -7305,12 +7305,12 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AE46" s="35">
-        <f t="shared" si="38"/>
+      <c r="AE46" s="34">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AF46" s="7" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="36"/>
         <v>#VALUE!</v>
       </c>
       <c r="AG46" s="11" t="e">
@@ -7323,38 +7323,38 @@
       </c>
     </row>
     <row r="47" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A47" s="28"/>
+      <c r="A47" s="27"/>
       <c r="B47" s="9"/>
       <c r="C47" s="10" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="D47" s="10" t="str">
+        <f t="shared" si="38"/>
+        <v/>
+      </c>
+      <c r="E47" s="10" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="F47" s="10" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="D47" s="10" t="str">
+      <c r="G47" s="10" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="E47" s="10" t="str">
+      <c r="H47" s="10" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="F47" s="10" t="str">
+      <c r="I47" s="10" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="G47" s="10" t="str">
+      <c r="J47" s="10" t="str">
         <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="H47" s="10" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="I47" s="10" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="J47" s="10" t="str">
-        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="K47" s="2" t="e">
@@ -7390,11 +7390,11 @@
         <v>0</v>
       </c>
       <c r="S47" s="12">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="T47" s="11">
         <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="T47" s="11">
-        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="U47" s="12">
@@ -7402,7 +7402,7 @@
         <v>0</v>
       </c>
       <c r="V47" s="12">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="W47" s="12">
@@ -7410,7 +7410,7 @@
         <v>0</v>
       </c>
       <c r="X47" s="12">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="Y47" s="12">
@@ -7418,7 +7418,7 @@
         <v>0</v>
       </c>
       <c r="Z47" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AA47" s="12">
@@ -7426,7 +7426,7 @@
         <v>0</v>
       </c>
       <c r="AB47" s="12">
-        <f t="shared" si="37"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AC47" s="12">
@@ -7437,12 +7437,12 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AE47" s="35">
-        <f t="shared" si="38"/>
+      <c r="AE47" s="34">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AF47" s="7" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="36"/>
         <v>#VALUE!</v>
       </c>
       <c r="AG47" s="11" t="e">
@@ -7455,38 +7455,38 @@
       </c>
     </row>
     <row r="48" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A48" s="28"/>
+      <c r="A48" s="27"/>
       <c r="B48" s="9"/>
       <c r="C48" s="10" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="D48" s="10" t="str">
+        <f t="shared" si="38"/>
+        <v/>
+      </c>
+      <c r="E48" s="10" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="F48" s="10" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="D48" s="10" t="str">
+      <c r="G48" s="10" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="E48" s="10" t="str">
+      <c r="H48" s="10" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="F48" s="10" t="str">
+      <c r="I48" s="10" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="G48" s="10" t="str">
+      <c r="J48" s="10" t="str">
         <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="H48" s="10" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="I48" s="10" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="J48" s="10" t="str">
-        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="K48" s="2" t="e">
@@ -7522,11 +7522,11 @@
         <v>0</v>
       </c>
       <c r="S48" s="12">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="T48" s="11">
         <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="T48" s="11">
-        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="U48" s="12">
@@ -7534,7 +7534,7 @@
         <v>0</v>
       </c>
       <c r="V48" s="12">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="W48" s="12">
@@ -7542,7 +7542,7 @@
         <v>0</v>
       </c>
       <c r="X48" s="12">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="Y48" s="12">
@@ -7550,7 +7550,7 @@
         <v>0</v>
       </c>
       <c r="Z48" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AA48" s="12">
@@ -7558,7 +7558,7 @@
         <v>0</v>
       </c>
       <c r="AB48" s="12">
-        <f t="shared" si="37"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AC48" s="12">
@@ -7569,12 +7569,12 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AE48" s="35">
-        <f t="shared" si="38"/>
+      <c r="AE48" s="34">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AF48" s="7" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="36"/>
         <v>#VALUE!</v>
       </c>
       <c r="AG48" s="11" t="e">
@@ -7587,38 +7587,38 @@
       </c>
     </row>
     <row r="49" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A49" s="28"/>
+      <c r="A49" s="27"/>
       <c r="B49" s="9"/>
       <c r="C49" s="10" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="D49" s="10" t="str">
+        <f t="shared" si="38"/>
+        <v/>
+      </c>
+      <c r="E49" s="10" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="F49" s="10" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="D49" s="10" t="str">
+      <c r="G49" s="10" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="E49" s="10" t="str">
+      <c r="H49" s="10" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="F49" s="10" t="str">
+      <c r="I49" s="10" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="G49" s="10" t="str">
+      <c r="J49" s="10" t="str">
         <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="H49" s="10" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="I49" s="10" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="J49" s="10" t="str">
-        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="K49" s="2" t="e">
@@ -7654,11 +7654,11 @@
         <v>0</v>
       </c>
       <c r="S49" s="12">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="T49" s="11">
         <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="T49" s="11">
-        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="U49" s="12">
@@ -7666,7 +7666,7 @@
         <v>0</v>
       </c>
       <c r="V49" s="12">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="W49" s="12">
@@ -7674,7 +7674,7 @@
         <v>0</v>
       </c>
       <c r="X49" s="12">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="Y49" s="12">
@@ -7682,7 +7682,7 @@
         <v>0</v>
       </c>
       <c r="Z49" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AA49" s="12">
@@ -7690,7 +7690,7 @@
         <v>0</v>
       </c>
       <c r="AB49" s="12">
-        <f t="shared" si="37"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AC49" s="12">
@@ -7701,12 +7701,12 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AE49" s="35">
-        <f t="shared" si="38"/>
+      <c r="AE49" s="34">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AF49" s="7" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="36"/>
         <v>#VALUE!</v>
       </c>
       <c r="AG49" s="11" t="e">
@@ -7719,38 +7719,38 @@
       </c>
     </row>
     <row r="50" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A50" s="28"/>
+      <c r="A50" s="27"/>
       <c r="B50" s="9"/>
       <c r="C50" s="10" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="D50" s="10" t="str">
+        <f t="shared" si="38"/>
+        <v/>
+      </c>
+      <c r="E50" s="10" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="F50" s="10" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="D50" s="10" t="str">
+      <c r="G50" s="10" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="E50" s="10" t="str">
+      <c r="H50" s="10" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="F50" s="10" t="str">
+      <c r="I50" s="10" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="G50" s="10" t="str">
+      <c r="J50" s="10" t="str">
         <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="H50" s="10" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="I50" s="10" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="J50" s="10" t="str">
-        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="K50" s="2" t="e">
@@ -7786,11 +7786,11 @@
         <v>0</v>
       </c>
       <c r="S50" s="12">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="T50" s="11">
         <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="T50" s="11">
-        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="U50" s="12">
@@ -7798,7 +7798,7 @@
         <v>0</v>
       </c>
       <c r="V50" s="12">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="W50" s="12">
@@ -7806,7 +7806,7 @@
         <v>0</v>
       </c>
       <c r="X50" s="12">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="Y50" s="12">
@@ -7814,7 +7814,7 @@
         <v>0</v>
       </c>
       <c r="Z50" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AA50" s="12">
@@ -7822,7 +7822,7 @@
         <v>0</v>
       </c>
       <c r="AB50" s="12">
-        <f t="shared" si="37"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AC50" s="12">
@@ -7833,12 +7833,12 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AE50" s="35">
-        <f t="shared" si="38"/>
+      <c r="AE50" s="34">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AF50" s="7" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="36"/>
         <v>#VALUE!</v>
       </c>
       <c r="AG50" s="11" t="e">
@@ -7861,7 +7861,7 @@
   <dimension ref="A1:I62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7880,7 +7880,7 @@
       <c r="A1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="41" t="s">
         <v>42</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -7906,675 +7906,675 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="46"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="45"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="40"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="43"/>
+      <c r="A3" s="39"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="42"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="40"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="43"/>
+      <c r="A4" s="39"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="42"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="40"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="43"/>
+      <c r="A5" s="39"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="42"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="40"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="43"/>
+      <c r="A6" s="39"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="42"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="40"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="43"/>
+      <c r="A7" s="39"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="42"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="40"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="43"/>
+      <c r="A8" s="39"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="42"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="40"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="43"/>
+      <c r="A9" s="39"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="42"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="40"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="43"/>
+      <c r="A10" s="39"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="42"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="40"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="43"/>
+      <c r="A11" s="39"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="42"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="40"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="43"/>
+      <c r="A12" s="39"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="42"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="40"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="43"/>
+      <c r="A13" s="39"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="42"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="40"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="43"/>
+      <c r="A14" s="39"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="42"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="40"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="43"/>
+      <c r="A15" s="39"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="42"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="40"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="43"/>
+      <c r="A16" s="39"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="42"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="40"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="43"/>
+      <c r="A17" s="39"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="42"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="40"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="43"/>
+      <c r="A18" s="39"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="42"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="40"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="43"/>
+      <c r="A19" s="39"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="42"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="40"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="43"/>
+      <c r="A20" s="39"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="42"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="40"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="43"/>
+      <c r="A21" s="39"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="42"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="40"/>
-      <c r="B22" s="38"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="43"/>
+      <c r="A22" s="39"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="42"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="40"/>
-      <c r="B23" s="38"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="43"/>
+      <c r="A23" s="39"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="42"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="40"/>
-      <c r="B24" s="38"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="43"/>
+      <c r="A24" s="39"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="42"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="40"/>
-      <c r="B25" s="38"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="43"/>
+      <c r="A25" s="39"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="42"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="40"/>
-      <c r="B26" s="38"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="43"/>
+      <c r="A26" s="39"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="42"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="40"/>
-      <c r="B27" s="38"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="45"/>
-      <c r="I27" s="43"/>
+      <c r="A27" s="39"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="42"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="40"/>
-      <c r="B28" s="38"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="43"/>
+      <c r="A28" s="39"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="42"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="40"/>
-      <c r="B29" s="38"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="45"/>
-      <c r="I29" s="43"/>
+      <c r="A29" s="39"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="42"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="41"/>
-      <c r="B30" s="39"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="39"/>
-      <c r="I30" s="44"/>
+      <c r="A30" s="40"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="43"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="41"/>
-      <c r="B31" s="39"/>
-      <c r="C31" s="39"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="39"/>
-      <c r="I31" s="44"/>
+      <c r="A31" s="40"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="43"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="41"/>
-      <c r="B32" s="39"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="39"/>
-      <c r="I32" s="44"/>
+      <c r="A32" s="40"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="43"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="41"/>
-      <c r="B33" s="39"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="39"/>
-      <c r="I33" s="44"/>
+      <c r="A33" s="40"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="38"/>
+      <c r="I33" s="43"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="41"/>
-      <c r="B34" s="39"/>
-      <c r="C34" s="39"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="39"/>
-      <c r="G34" s="39"/>
-      <c r="H34" s="39"/>
-      <c r="I34" s="44"/>
+      <c r="A34" s="40"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="38"/>
+      <c r="H34" s="38"/>
+      <c r="I34" s="43"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="41"/>
-      <c r="B35" s="39"/>
-      <c r="C35" s="39"/>
-      <c r="D35" s="39"/>
-      <c r="E35" s="39"/>
-      <c r="F35" s="39"/>
-      <c r="G35" s="39"/>
-      <c r="H35" s="39"/>
-      <c r="I35" s="44"/>
+      <c r="A35" s="40"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="43"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="41"/>
-      <c r="B36" s="39"/>
-      <c r="C36" s="39"/>
-      <c r="D36" s="39"/>
-      <c r="E36" s="39"/>
-      <c r="F36" s="39"/>
-      <c r="G36" s="39"/>
-      <c r="H36" s="39"/>
-      <c r="I36" s="44"/>
+      <c r="A36" s="40"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="38"/>
+      <c r="G36" s="38"/>
+      <c r="H36" s="38"/>
+      <c r="I36" s="43"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="41"/>
-      <c r="B37" s="39"/>
-      <c r="C37" s="39"/>
-      <c r="D37" s="39"/>
-      <c r="E37" s="39"/>
-      <c r="F37" s="39"/>
-      <c r="G37" s="39"/>
-      <c r="H37" s="39"/>
-      <c r="I37" s="44"/>
+      <c r="A37" s="40"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="43"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="41"/>
-      <c r="B38" s="39"/>
-      <c r="C38" s="39"/>
-      <c r="D38" s="39"/>
-      <c r="E38" s="39"/>
-      <c r="F38" s="39"/>
-      <c r="G38" s="39"/>
-      <c r="H38" s="39"/>
-      <c r="I38" s="44"/>
+      <c r="A38" s="40"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="38"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="43"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="41"/>
-      <c r="B39" s="39"/>
-      <c r="C39" s="39"/>
-      <c r="D39" s="39"/>
-      <c r="E39" s="39"/>
-      <c r="F39" s="39"/>
-      <c r="G39" s="39"/>
-      <c r="H39" s="39"/>
-      <c r="I39" s="44"/>
+      <c r="A39" s="40"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="38"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="43"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="41"/>
-      <c r="B40" s="39"/>
-      <c r="C40" s="39"/>
-      <c r="D40" s="39"/>
-      <c r="E40" s="39"/>
-      <c r="F40" s="39"/>
-      <c r="G40" s="39"/>
-      <c r="H40" s="39"/>
-      <c r="I40" s="44"/>
+      <c r="A40" s="40"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="38"/>
+      <c r="I40" s="43"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="41"/>
-      <c r="B41" s="39"/>
-      <c r="C41" s="39"/>
-      <c r="D41" s="39"/>
-      <c r="E41" s="39"/>
-      <c r="F41" s="39"/>
-      <c r="G41" s="39"/>
-      <c r="H41" s="39"/>
-      <c r="I41" s="44"/>
+      <c r="A41" s="40"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="38"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="38"/>
+      <c r="G41" s="38"/>
+      <c r="H41" s="38"/>
+      <c r="I41" s="43"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="41"/>
-      <c r="B42" s="39"/>
-      <c r="C42" s="39"/>
-      <c r="D42" s="39"/>
-      <c r="E42" s="39"/>
-      <c r="F42" s="39"/>
-      <c r="G42" s="39"/>
-      <c r="H42" s="39"/>
-      <c r="I42" s="44"/>
+      <c r="A42" s="40"/>
+      <c r="B42" s="38"/>
+      <c r="C42" s="38"/>
+      <c r="D42" s="38"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="38"/>
+      <c r="G42" s="38"/>
+      <c r="H42" s="38"/>
+      <c r="I42" s="43"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="41"/>
-      <c r="B43" s="39"/>
-      <c r="C43" s="39"/>
-      <c r="D43" s="39"/>
-      <c r="E43" s="39"/>
-      <c r="F43" s="39"/>
-      <c r="G43" s="39"/>
-      <c r="H43" s="39"/>
-      <c r="I43" s="44"/>
+      <c r="A43" s="40"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="38"/>
+      <c r="E43" s="38"/>
+      <c r="F43" s="38"/>
+      <c r="G43" s="38"/>
+      <c r="H43" s="38"/>
+      <c r="I43" s="43"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="41"/>
-      <c r="B44" s="39"/>
-      <c r="C44" s="39"/>
-      <c r="D44" s="39"/>
-      <c r="E44" s="39"/>
-      <c r="F44" s="39"/>
-      <c r="G44" s="39"/>
-      <c r="H44" s="39"/>
-      <c r="I44" s="44"/>
+      <c r="A44" s="40"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="38"/>
+      <c r="D44" s="38"/>
+      <c r="E44" s="38"/>
+      <c r="F44" s="38"/>
+      <c r="G44" s="38"/>
+      <c r="H44" s="38"/>
+      <c r="I44" s="43"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="38"/>
-      <c r="B45" s="39"/>
-      <c r="C45" s="39"/>
-      <c r="D45" s="39"/>
-      <c r="E45" s="39"/>
-      <c r="F45" s="39"/>
-      <c r="G45" s="39"/>
-      <c r="H45" s="39"/>
-      <c r="I45" s="39"/>
+      <c r="A45" s="37"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="38"/>
+      <c r="D45" s="38"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="38"/>
+      <c r="G45" s="38"/>
+      <c r="H45" s="38"/>
+      <c r="I45" s="38"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="38"/>
-      <c r="B46" s="39"/>
-      <c r="C46" s="39"/>
-      <c r="D46" s="39"/>
-      <c r="E46" s="39"/>
-      <c r="F46" s="39"/>
-      <c r="G46" s="39"/>
-      <c r="H46" s="39"/>
-      <c r="I46" s="39"/>
+      <c r="A46" s="37"/>
+      <c r="B46" s="38"/>
+      <c r="C46" s="38"/>
+      <c r="D46" s="38"/>
+      <c r="E46" s="38"/>
+      <c r="F46" s="38"/>
+      <c r="G46" s="38"/>
+      <c r="H46" s="38"/>
+      <c r="I46" s="38"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="38"/>
-      <c r="B47" s="39"/>
-      <c r="C47" s="39"/>
-      <c r="D47" s="39"/>
-      <c r="E47" s="39"/>
-      <c r="F47" s="39"/>
-      <c r="G47" s="39"/>
-      <c r="H47" s="39"/>
-      <c r="I47" s="39"/>
+      <c r="A47" s="37"/>
+      <c r="B47" s="38"/>
+      <c r="C47" s="38"/>
+      <c r="D47" s="38"/>
+      <c r="E47" s="38"/>
+      <c r="F47" s="38"/>
+      <c r="G47" s="38"/>
+      <c r="H47" s="38"/>
+      <c r="I47" s="38"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="38"/>
-      <c r="B48" s="39"/>
-      <c r="C48" s="39"/>
-      <c r="D48" s="39"/>
-      <c r="E48" s="39"/>
-      <c r="F48" s="39"/>
-      <c r="G48" s="39"/>
-      <c r="H48" s="39"/>
-      <c r="I48" s="39"/>
+      <c r="A48" s="37"/>
+      <c r="B48" s="38"/>
+      <c r="C48" s="38"/>
+      <c r="D48" s="38"/>
+      <c r="E48" s="38"/>
+      <c r="F48" s="38"/>
+      <c r="G48" s="38"/>
+      <c r="H48" s="38"/>
+      <c r="I48" s="38"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="38"/>
-      <c r="B49" s="39"/>
-      <c r="C49" s="39"/>
-      <c r="D49" s="39"/>
-      <c r="E49" s="39"/>
-      <c r="F49" s="39"/>
-      <c r="G49" s="39"/>
-      <c r="H49" s="39"/>
-      <c r="I49" s="39"/>
+      <c r="A49" s="37"/>
+      <c r="B49" s="38"/>
+      <c r="C49" s="38"/>
+      <c r="D49" s="38"/>
+      <c r="E49" s="38"/>
+      <c r="F49" s="38"/>
+      <c r="G49" s="38"/>
+      <c r="H49" s="38"/>
+      <c r="I49" s="38"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="38"/>
-      <c r="B50" s="39"/>
-      <c r="C50" s="39"/>
-      <c r="D50" s="39"/>
-      <c r="E50" s="39"/>
-      <c r="F50" s="39"/>
-      <c r="G50" s="39"/>
-      <c r="H50" s="39"/>
-      <c r="I50" s="39"/>
+      <c r="A50" s="37"/>
+      <c r="B50" s="38"/>
+      <c r="C50" s="38"/>
+      <c r="D50" s="38"/>
+      <c r="E50" s="38"/>
+      <c r="F50" s="38"/>
+      <c r="G50" s="38"/>
+      <c r="H50" s="38"/>
+      <c r="I50" s="38"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="38"/>
-      <c r="B51" s="39"/>
-      <c r="C51" s="39"/>
-      <c r="D51" s="39"/>
-      <c r="E51" s="39"/>
-      <c r="F51" s="39"/>
-      <c r="G51" s="39"/>
-      <c r="H51" s="39"/>
-      <c r="I51" s="39"/>
+      <c r="A51" s="37"/>
+      <c r="B51" s="38"/>
+      <c r="C51" s="38"/>
+      <c r="D51" s="38"/>
+      <c r="E51" s="38"/>
+      <c r="F51" s="38"/>
+      <c r="G51" s="38"/>
+      <c r="H51" s="38"/>
+      <c r="I51" s="38"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="38"/>
-      <c r="B52" s="39"/>
-      <c r="C52" s="39"/>
-      <c r="D52" s="39"/>
-      <c r="E52" s="39"/>
-      <c r="F52" s="39"/>
-      <c r="G52" s="39"/>
-      <c r="H52" s="39"/>
-      <c r="I52" s="39"/>
+      <c r="A52" s="37"/>
+      <c r="B52" s="38"/>
+      <c r="C52" s="38"/>
+      <c r="D52" s="38"/>
+      <c r="E52" s="38"/>
+      <c r="F52" s="38"/>
+      <c r="G52" s="38"/>
+      <c r="H52" s="38"/>
+      <c r="I52" s="38"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="38"/>
-      <c r="B53" s="39"/>
-      <c r="C53" s="39"/>
-      <c r="D53" s="39"/>
-      <c r="E53" s="39"/>
-      <c r="F53" s="39"/>
-      <c r="G53" s="39"/>
-      <c r="H53" s="39"/>
-      <c r="I53" s="39"/>
+      <c r="A53" s="37"/>
+      <c r="B53" s="38"/>
+      <c r="C53" s="38"/>
+      <c r="D53" s="38"/>
+      <c r="E53" s="38"/>
+      <c r="F53" s="38"/>
+      <c r="G53" s="38"/>
+      <c r="H53" s="38"/>
+      <c r="I53" s="38"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="38"/>
-      <c r="B54" s="39"/>
-      <c r="C54" s="39"/>
-      <c r="D54" s="39"/>
-      <c r="E54" s="39"/>
-      <c r="F54" s="39"/>
-      <c r="G54" s="39"/>
-      <c r="H54" s="39"/>
-      <c r="I54" s="39"/>
+      <c r="A54" s="37"/>
+      <c r="B54" s="38"/>
+      <c r="C54" s="38"/>
+      <c r="D54" s="38"/>
+      <c r="E54" s="38"/>
+      <c r="F54" s="38"/>
+      <c r="G54" s="38"/>
+      <c r="H54" s="38"/>
+      <c r="I54" s="38"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="38"/>
-      <c r="B55" s="39"/>
-      <c r="C55" s="39"/>
-      <c r="D55" s="39"/>
-      <c r="E55" s="39"/>
-      <c r="F55" s="39"/>
-      <c r="G55" s="39"/>
-      <c r="H55" s="39"/>
-      <c r="I55" s="39"/>
+      <c r="A55" s="37"/>
+      <c r="B55" s="38"/>
+      <c r="C55" s="38"/>
+      <c r="D55" s="38"/>
+      <c r="E55" s="38"/>
+      <c r="F55" s="38"/>
+      <c r="G55" s="38"/>
+      <c r="H55" s="38"/>
+      <c r="I55" s="38"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="38"/>
-      <c r="B56" s="39"/>
-      <c r="C56" s="39"/>
-      <c r="D56" s="39"/>
-      <c r="E56" s="39"/>
-      <c r="F56" s="39"/>
-      <c r="G56" s="39"/>
-      <c r="H56" s="39"/>
-      <c r="I56" s="39"/>
+      <c r="A56" s="37"/>
+      <c r="B56" s="38"/>
+      <c r="C56" s="38"/>
+      <c r="D56" s="38"/>
+      <c r="E56" s="38"/>
+      <c r="F56" s="38"/>
+      <c r="G56" s="38"/>
+      <c r="H56" s="38"/>
+      <c r="I56" s="38"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="38"/>
-      <c r="B57" s="39"/>
-      <c r="C57" s="39"/>
-      <c r="D57" s="39"/>
-      <c r="E57" s="39"/>
-      <c r="F57" s="39"/>
-      <c r="G57" s="39"/>
-      <c r="H57" s="39"/>
-      <c r="I57" s="39"/>
+      <c r="A57" s="37"/>
+      <c r="B57" s="38"/>
+      <c r="C57" s="38"/>
+      <c r="D57" s="38"/>
+      <c r="E57" s="38"/>
+      <c r="F57" s="38"/>
+      <c r="G57" s="38"/>
+      <c r="H57" s="38"/>
+      <c r="I57" s="38"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="38"/>
-      <c r="B58" s="39"/>
-      <c r="C58" s="39"/>
-      <c r="D58" s="39"/>
-      <c r="E58" s="39"/>
-      <c r="F58" s="39"/>
-      <c r="G58" s="39"/>
-      <c r="H58" s="39"/>
-      <c r="I58" s="39"/>
+      <c r="A58" s="37"/>
+      <c r="B58" s="38"/>
+      <c r="C58" s="38"/>
+      <c r="D58" s="38"/>
+      <c r="E58" s="38"/>
+      <c r="F58" s="38"/>
+      <c r="G58" s="38"/>
+      <c r="H58" s="38"/>
+      <c r="I58" s="38"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="38"/>
-      <c r="B59" s="39"/>
-      <c r="C59" s="39"/>
-      <c r="D59" s="39"/>
-      <c r="E59" s="39"/>
-      <c r="F59" s="39"/>
-      <c r="G59" s="39"/>
-      <c r="H59" s="39"/>
-      <c r="I59" s="39"/>
+      <c r="A59" s="37"/>
+      <c r="B59" s="38"/>
+      <c r="C59" s="38"/>
+      <c r="D59" s="38"/>
+      <c r="E59" s="38"/>
+      <c r="F59" s="38"/>
+      <c r="G59" s="38"/>
+      <c r="H59" s="38"/>
+      <c r="I59" s="38"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="38"/>
-      <c r="B60" s="39"/>
-      <c r="C60" s="39"/>
-      <c r="D60" s="39"/>
-      <c r="E60" s="39"/>
-      <c r="F60" s="39"/>
-      <c r="G60" s="39"/>
-      <c r="H60" s="39"/>
-      <c r="I60" s="39"/>
+      <c r="A60" s="37"/>
+      <c r="B60" s="38"/>
+      <c r="C60" s="38"/>
+      <c r="D60" s="38"/>
+      <c r="E60" s="38"/>
+      <c r="F60" s="38"/>
+      <c r="G60" s="38"/>
+      <c r="H60" s="38"/>
+      <c r="I60" s="38"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="38"/>
-      <c r="B61" s="39"/>
-      <c r="C61" s="39"/>
-      <c r="D61" s="39"/>
-      <c r="E61" s="39"/>
-      <c r="F61" s="39"/>
-      <c r="G61" s="39"/>
-      <c r="H61" s="39"/>
-      <c r="I61" s="39"/>
+      <c r="A61" s="37"/>
+      <c r="B61" s="38"/>
+      <c r="C61" s="38"/>
+      <c r="D61" s="38"/>
+      <c r="E61" s="38"/>
+      <c r="F61" s="38"/>
+      <c r="G61" s="38"/>
+      <c r="H61" s="38"/>
+      <c r="I61" s="38"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="38"/>
-      <c r="B62" s="39"/>
-      <c r="C62" s="39"/>
-      <c r="D62" s="39"/>
-      <c r="E62" s="39"/>
-      <c r="F62" s="39"/>
-      <c r="G62" s="39"/>
-      <c r="H62" s="39"/>
-      <c r="I62" s="39"/>
+      <c r="A62" s="37"/>
+      <c r="B62" s="38"/>
+      <c r="C62" s="38"/>
+      <c r="D62" s="38"/>
+      <c r="E62" s="38"/>
+      <c r="F62" s="38"/>
+      <c r="G62" s="38"/>
+      <c r="H62" s="38"/>
+      <c r="I62" s="38"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Compétences/Resources/Type_dnb_oral.xlsx
+++ b/Compétences/Resources/Type_dnb_oral.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manceau\Desktop\Fourre-tout\ELyco_Competences\2017-2018\DNB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mes Documents\Visual Studio 2015\Projects\Compétences\Compétences\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
   <si>
     <t>Classe</t>
   </si>
@@ -197,6 +197,24 @@
     <t>Histoire
 Géo EMC
 (épreuve /50)</t>
+  </si>
+  <si>
+    <t>Non admis</t>
+  </si>
+  <si>
+    <t>Admis sans mention</t>
+  </si>
+  <si>
+    <t>Admis mention B</t>
+  </si>
+  <si>
+    <t>Admis mention TB</t>
+  </si>
+  <si>
+    <t>% de réussite</t>
+  </si>
+  <si>
+    <t>Admis mention AB</t>
   </si>
 </sst>
 </file>
@@ -958,13 +976,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AQ50"/>
+  <dimension ref="A1:AX50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AL2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AD2" sqref="AD2"/>
+      <selection pane="bottomRight" activeCell="AV4" sqref="AV4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -999,7 +1017,7 @@
     <col min="34" max="34" width="24.42578125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" s="1" customFormat="1" ht="65.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:50" s="1" customFormat="1" ht="65.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="25" t="s">
         <v>23</v>
       </c>
@@ -1129,8 +1147,26 @@
       <c r="AQ1" s="30" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AS1" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="AT1" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="AU1" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV1" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="AW1" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="AX1" s="30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A2" s="27"/>
       <c r="B2" s="9"/>
       <c r="C2" s="10" t="str">
@@ -1271,7 +1307,7 @@
       <c r="AP2" s="28"/>
       <c r="AQ2" s="31"/>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A3" s="27"/>
       <c r="B3" s="9"/>
       <c r="C3" s="10" t="str">
@@ -1412,7 +1448,7 @@
       <c r="AP3" s="28"/>
       <c r="AQ3" s="31"/>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A4" s="27"/>
       <c r="B4" s="9"/>
       <c r="C4" s="10" t="str">
@@ -1553,7 +1589,7 @@
       <c r="AP4" s="28"/>
       <c r="AQ4" s="31"/>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A5" s="27"/>
       <c r="B5" s="9"/>
       <c r="C5" s="10" t="str">
@@ -1694,7 +1730,7 @@
       <c r="AP5" s="28"/>
       <c r="AQ5" s="32"/>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A6" s="27"/>
       <c r="B6" s="9"/>
       <c r="C6" s="10" t="str">
@@ -1835,7 +1871,7 @@
       <c r="AP6" s="28"/>
       <c r="AQ6" s="31"/>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A7" s="27"/>
       <c r="B7" s="9"/>
       <c r="C7" s="10" t="str">
@@ -1976,7 +2012,7 @@
       <c r="AP7" s="28"/>
       <c r="AQ7" s="31"/>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A8" s="27"/>
       <c r="B8" s="9"/>
       <c r="C8" s="10" t="str">
@@ -2117,7 +2153,7 @@
       <c r="AP8" s="28"/>
       <c r="AQ8" s="31"/>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A9" s="27"/>
       <c r="B9" s="9"/>
       <c r="C9" s="10" t="str">
@@ -2258,7 +2294,7 @@
       <c r="AP9" s="28"/>
       <c r="AQ9" s="31"/>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A10" s="27"/>
       <c r="B10" s="9"/>
       <c r="C10" s="10" t="str">
@@ -2399,7 +2435,7 @@
       <c r="AP10" s="28"/>
       <c r="AQ10" s="31"/>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A11" s="27"/>
       <c r="B11" s="9"/>
       <c r="C11" s="10" t="str">
@@ -2540,7 +2576,7 @@
       <c r="AP11" s="28"/>
       <c r="AQ11" s="31"/>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A12" s="27"/>
       <c r="B12" s="9"/>
       <c r="C12" s="10" t="str">
@@ -2681,7 +2717,7 @@
       <c r="AP12" s="28"/>
       <c r="AQ12" s="36"/>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A13" s="27"/>
       <c r="B13" s="9"/>
       <c r="C13" s="10" t="str">
@@ -2822,7 +2858,7 @@
       <c r="AP13" s="28"/>
       <c r="AQ13" s="36"/>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A14" s="27"/>
       <c r="B14" s="9"/>
       <c r="C14" s="10" t="str">
@@ -2963,7 +2999,7 @@
       <c r="AP14" s="28"/>
       <c r="AQ14" s="36"/>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A15" s="27"/>
       <c r="B15" s="9"/>
       <c r="C15" s="10" t="str">
@@ -3104,7 +3140,7 @@
       <c r="AP15" s="28"/>
       <c r="AQ15" s="36"/>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A16" s="27"/>
       <c r="B16" s="9"/>
       <c r="C16" s="10" t="str">
